--- a/Analysis/wrangler_digit_span_log.xlsx
+++ b/Analysis/wrangler_digit_span_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a77ded506e32178a/Tartu Ülikool/AI and NI/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048F8B91D53465BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DA7BD69-99D9-433F-A57A-EAE2831178AF}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_F25DC773A252ABDACC1048F8B91D53465BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{422BD806-5D2D-440B-BF2F-F37E35060838}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="25320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,13 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +424,7 @@
   <dimension ref="A1:V482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +441,7 @@
     <col min="10" max="10" width="14.44140625" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
     <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -553,7 +548,7 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>4.7394742965698198</v>
       </c>
       <c r="K2">
@@ -618,7 +613,7 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>12.6872322559356</v>
       </c>
       <c r="K3">
@@ -683,7 +678,7 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>8.8087043762206996</v>
       </c>
       <c r="K4">
@@ -748,7 +743,7 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>4.7398192882537797</v>
       </c>
       <c r="K5">
@@ -813,7 +808,7 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>13.756988286972</v>
       </c>
       <c r="K6">
@@ -878,7 +873,7 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>16.7116086483001</v>
       </c>
       <c r="K7">
@@ -943,7 +938,7 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>19.305833339691102</v>
       </c>
       <c r="K8">
@@ -1008,7 +1003,7 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>13.8749065399169</v>
       </c>
       <c r="K9">
@@ -1073,7 +1068,7 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>17.799796819686801</v>
       </c>
       <c r="K10">
@@ -1138,7 +1133,7 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>1.4445769786834699</v>
       </c>
       <c r="K11">
@@ -1203,7 +1198,7 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>1.5622982978820801</v>
       </c>
       <c r="K12">
@@ -1268,7 +1263,7 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>2.5416686534881499</v>
       </c>
       <c r="K13">
@@ -1333,7 +1328,7 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>2.7303299903869598</v>
       </c>
       <c r="K14">
@@ -1398,7 +1393,7 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>2.7499148845672599</v>
       </c>
       <c r="K15">
@@ -1463,7 +1458,7 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>5.8378391265869096</v>
       </c>
       <c r="K16">
@@ -1528,7 +1523,7 @@
       <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>4.8057968616485596</v>
       </c>
       <c r="K17">
@@ -1593,7 +1588,7 @@
       <c r="I18">
         <v>3</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>5.3223385810851997</v>
       </c>
       <c r="K18">
@@ -1658,7 +1653,7 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>3.1418526172637899</v>
       </c>
       <c r="K19">
@@ -1723,7 +1718,7 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>37.059008836746202</v>
       </c>
       <c r="K20">
@@ -1788,7 +1783,7 @@
       <c r="I21">
         <v>2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>5.0164754390716499</v>
       </c>
       <c r="K21">
@@ -1853,7 +1848,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>9.8555779457092196</v>
       </c>
       <c r="K22">
@@ -1918,7 +1913,7 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>4.5442135334014804</v>
       </c>
       <c r="K23">
@@ -1983,7 +1978,7 @@
       <c r="I24">
         <v>2</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>7.0768742561340297</v>
       </c>
       <c r="K24">
@@ -2048,7 +2043,7 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>1.6326644420623699</v>
       </c>
       <c r="K25">
@@ -2113,7 +2108,7 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <v>3.0759108066558798</v>
       </c>
       <c r="K26">
@@ -2178,7 +2173,7 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>2.1684937477111799</v>
       </c>
       <c r="K27">
@@ -2243,7 +2238,7 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="4">
         <v>8.2573108673095703</v>
       </c>
       <c r="K28">
@@ -2308,7 +2303,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>13.9833981990814</v>
       </c>
       <c r="K29">
@@ -2373,7 +2368,7 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="4">
         <v>39.937207221984799</v>
       </c>
       <c r="K30">
@@ -2438,7 +2433,7 @@
       <c r="I31">
         <v>2</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="4">
         <v>24.599453926086401</v>
       </c>
       <c r="K31">
@@ -2503,7 +2498,7 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>11.3179440498352</v>
       </c>
       <c r="K32">
@@ -2568,7 +2563,7 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <v>15.1970310211181</v>
       </c>
       <c r="K33">
@@ -2633,7 +2628,7 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="4">
         <v>36.6836323738098</v>
       </c>
       <c r="K34">
@@ -2698,7 +2693,7 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>43.622707366943303</v>
       </c>
       <c r="K35">
@@ -2763,7 +2758,7 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="4">
         <v>20.641532421112</v>
       </c>
       <c r="K36">
@@ -2828,7 +2823,7 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="4">
         <v>11.3745782375335</v>
       </c>
       <c r="K37">
@@ -2893,7 +2888,7 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="4">
         <v>17.694317817687899</v>
       </c>
       <c r="K38">
@@ -2958,7 +2953,7 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="4">
         <v>46.943474292755099</v>
       </c>
       <c r="K39">
@@ -3023,7 +3018,7 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="4">
         <v>18.0956292152404</v>
       </c>
       <c r="K40">
@@ -3088,7 +3083,7 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="4">
         <v>27.717645645141602</v>
       </c>
       <c r="K41">
@@ -3153,7 +3148,7 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="4">
         <v>30.271453142166099</v>
       </c>
       <c r="K42">
@@ -3218,7 +3213,7 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="4">
         <v>89.984643220901404</v>
       </c>
       <c r="K43">
@@ -3283,7 +3278,7 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="4">
         <v>56.880363464355398</v>
       </c>
       <c r="K44">
@@ -3348,7 +3343,7 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="4">
         <v>21.237117528915402</v>
       </c>
       <c r="K45">
@@ -3413,7 +3408,7 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="4">
         <v>5.3273396492004297</v>
       </c>
       <c r="K46">
@@ -3478,7 +3473,7 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="4">
         <v>15.318625450134199</v>
       </c>
       <c r="K47">
@@ -3541,7 +3536,7 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="4">
         <v>4.41389727592468</v>
       </c>
       <c r="K48">
@@ -3606,7 +3601,7 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="4">
         <v>5.1214876174926696</v>
       </c>
       <c r="K49">
@@ -3671,7 +3666,7 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="4">
         <v>11.203895330429001</v>
       </c>
       <c r="K50">
@@ -3736,7 +3731,7 @@
       <c r="I51">
         <v>2</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="4">
         <v>26.260667562484699</v>
       </c>
       <c r="K51">
@@ -3801,7 +3796,7 @@
       <c r="I52">
         <v>3</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="4">
         <v>3.5705180168151802</v>
       </c>
       <c r="K52">
@@ -3866,7 +3861,7 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="4">
         <v>6.9525165557861301</v>
       </c>
       <c r="K53">
@@ -3931,7 +3926,7 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="4">
         <v>3.26608681678771</v>
       </c>
       <c r="K54">
@@ -3996,7 +3991,7 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="4">
         <v>5.8412883281707701</v>
       </c>
       <c r="K55">
@@ -4061,7 +4056,7 @@
       <c r="I56">
         <v>2</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="4">
         <v>34.813750743865903</v>
       </c>
       <c r="K56">
@@ -4126,7 +4121,7 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="4">
         <v>2.5888075828552202</v>
       </c>
       <c r="K57">
@@ -4191,7 +4186,7 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="4">
         <v>3.80247950553894</v>
       </c>
       <c r="K58">
@@ -4256,7 +4251,7 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="4">
         <v>3.1048815250396702</v>
       </c>
       <c r="K59">
@@ -4321,7 +4316,7 @@
       <c r="I60">
         <v>2</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="4">
         <v>2.35246610641479</v>
       </c>
       <c r="K60">
@@ -4386,7 +4381,7 @@
       <c r="I61">
         <v>3</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="4">
         <v>45.256914854049597</v>
       </c>
       <c r="K61">
@@ -4451,7 +4446,7 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="4">
         <v>3.61804795265197</v>
       </c>
       <c r="K62">
@@ -4516,7 +4511,7 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="4">
         <v>5.5978186130523602</v>
       </c>
       <c r="K63">
@@ -4581,7 +4576,7 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="4">
         <v>7.5794916152954102</v>
       </c>
       <c r="K64">
@@ -4646,7 +4641,7 @@
       <c r="I65">
         <v>2</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="4">
         <v>3.3337934017181299</v>
       </c>
       <c r="K65">
@@ -4711,7 +4706,7 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="4">
         <v>4.8101258277893004</v>
       </c>
       <c r="K66">
@@ -4776,7 +4771,7 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="4">
         <v>6.8210978507995597</v>
       </c>
       <c r="K67">
@@ -4841,7 +4836,7 @@
       <c r="I68">
         <v>2</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="4">
         <v>4.1315798759460396</v>
       </c>
       <c r="K68">
@@ -4916,7 +4911,7 @@
         <v>4</v>
       </c>
       <c r="M69" s="2">
-        <v>4.9680223157612322E-5</v>
+        <v>4.6296296296296294E-5</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4971,7 +4966,7 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="4">
         <v>25.707628719182296</v>
       </c>
       <c r="K70">
@@ -5036,7 +5031,7 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="4">
         <v>15.8244925408752</v>
       </c>
       <c r="K71">
@@ -5101,7 +5096,7 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="4">
         <v>14.799964785402342</v>
       </c>
       <c r="K72">
@@ -5166,7 +5161,7 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="4">
         <v>13.475748990933401</v>
       </c>
       <c r="K73">
@@ -5231,7 +5226,7 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J74" s="4">
         <v>21.630577001083445</v>
       </c>
       <c r="K74">
@@ -5296,7 +5291,7 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="4">
         <v>34.9437210563026</v>
       </c>
       <c r="K75">
@@ -5361,7 +5356,7 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76" s="4">
         <v>34.486294097206091</v>
       </c>
       <c r="K76">
@@ -5426,7 +5421,7 @@
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="4">
         <v>71.894446401614104</v>
       </c>
       <c r="K77">
@@ -5491,7 +5486,7 @@
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78" s="4">
         <v>39.4682095524592</v>
       </c>
       <c r="K78">
@@ -5556,7 +5551,7 @@
       <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79" s="4">
         <v>56.836794414163961</v>
       </c>
       <c r="K79">
@@ -5621,7 +5616,7 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J80" s="4">
         <v>67.159528783668321</v>
       </c>
       <c r="K80">
@@ -5686,7 +5681,7 @@
       <c r="I81">
         <v>2</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="4">
         <v>18.561809695134819</v>
       </c>
       <c r="K81">
@@ -5751,7 +5746,7 @@
       <c r="I82">
         <v>3</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="4">
         <v>45.665575797523999</v>
       </c>
       <c r="K82">
@@ -5816,7 +5811,7 @@
       <c r="I83">
         <v>4</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J83" s="4">
         <v>25.749764002841008</v>
       </c>
       <c r="K83">
@@ -5881,7 +5876,7 @@
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J84" s="4">
         <v>53.823823554430859</v>
       </c>
       <c r="K84">
@@ -5946,7 +5941,7 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85" s="4">
         <v>37.338182612810243</v>
       </c>
       <c r="K85">
@@ -6011,7 +6006,7 @@
       <c r="I86">
         <v>2</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86" s="4">
         <v>21.197897373403858</v>
       </c>
       <c r="K86">
@@ -6076,7 +6071,7 @@
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87" s="4">
         <v>85.670957933278302</v>
       </c>
       <c r="K87">
@@ -6141,7 +6136,7 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J88" s="4">
         <v>18.513385126237107</v>
       </c>
       <c r="K88">
@@ -6206,7 +6201,7 @@
       <c r="I89">
         <v>2</v>
       </c>
-      <c r="J89" s="5">
+      <c r="J89" s="4">
         <v>25.001251658662198</v>
       </c>
       <c r="K89">
@@ -6271,7 +6266,7 @@
       <c r="I90">
         <v>3</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J90" s="4">
         <v>50.165119640812719</v>
       </c>
       <c r="K90">
@@ -6336,7 +6331,7 @@
       <c r="I91">
         <v>4</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="4">
         <v>15.511027537736824</v>
       </c>
       <c r="K91">
@@ -6411,7 +6406,7 @@
         <v>4</v>
       </c>
       <c r="M92" s="2">
-        <v>4.7654493149081258E-5</v>
+        <v>4.6296296296296294E-5</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -6466,7 +6461,7 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J93" s="4">
         <v>24.882651791919379</v>
       </c>
       <c r="K93">
@@ -6531,7 +6526,7 @@
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="J94" s="5">
+      <c r="J94" s="4">
         <v>21.716231708322784</v>
       </c>
       <c r="K94">
@@ -6596,7 +6591,7 @@
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="J95" s="5">
+      <c r="J95" s="4">
         <v>19.877164881880116</v>
       </c>
       <c r="K95">
@@ -6661,7 +6656,7 @@
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96" s="5">
+      <c r="J96" s="4">
         <v>26.075706393074693</v>
       </c>
       <c r="K96">
@@ -6726,7 +6721,7 @@
       <c r="I97">
         <v>0</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97" s="4">
         <v>68.549487621326193</v>
       </c>
       <c r="K97">
@@ -6791,7 +6786,7 @@
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="J98" s="5">
+      <c r="J98" s="4">
         <v>66.845272737936895</v>
       </c>
       <c r="K98">
@@ -6856,7 +6851,7 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99" s="4">
         <v>31.97757454867585</v>
       </c>
       <c r="K99">
@@ -6921,7 +6916,7 @@
       <c r="I100">
         <v>0</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J100" s="4">
         <v>31.178992991826551</v>
       </c>
       <c r="K100">
@@ -6986,7 +6981,7 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101" s="5">
+      <c r="J101" s="4">
         <v>47.592996564034308</v>
       </c>
       <c r="K101">
@@ -7051,7 +7046,7 @@
       <c r="I102">
         <v>2</v>
       </c>
-      <c r="J102" s="5">
+      <c r="J102" s="4">
         <v>37.590662785035285</v>
       </c>
       <c r="K102">
@@ -7116,7 +7111,7 @@
       <c r="I103">
         <v>0</v>
       </c>
-      <c r="J103" s="5">
+      <c r="J103" s="4">
         <v>56.643825741948525</v>
       </c>
       <c r="K103">
@@ -7181,7 +7176,7 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104" s="5">
+      <c r="J104" s="4">
         <v>16.743757531811173</v>
       </c>
       <c r="K104">
@@ -7237,8 +7232,8 @@
       <c r="F105" s="3">
         <v>99635006151</v>
       </c>
-      <c r="G105" s="3" t="b">
-        <v>0</v>
+      <c r="G105" s="3">
+        <v>996350</v>
       </c>
       <c r="H105" t="s">
         <v>24</v>
@@ -7246,7 +7241,7 @@
       <c r="I105">
         <v>2</v>
       </c>
-      <c r="J105" s="5">
+      <c r="J105" s="4">
         <v>41.542532601423495</v>
       </c>
       <c r="K105">
@@ -7302,16 +7297,14 @@
       <c r="F106" s="3">
         <v>9429802902</v>
       </c>
-      <c r="G106" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G106" s="3"/>
       <c r="H106" t="s">
         <v>24</v>
       </c>
       <c r="I106">
         <v>3</v>
       </c>
-      <c r="J106" s="5">
+      <c r="J106" s="4">
         <v>41.576552366759387</v>
       </c>
       <c r="K106">
@@ -7367,16 +7360,14 @@
       <c r="F107" s="3">
         <v>499651102</v>
       </c>
-      <c r="G107" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G107" s="3"/>
       <c r="H107" t="s">
         <v>24</v>
       </c>
       <c r="I107">
         <v>4</v>
       </c>
-      <c r="J107" s="5">
+      <c r="J107" s="4">
         <v>10.632144635231267</v>
       </c>
       <c r="K107">
@@ -7441,7 +7432,7 @@
       <c r="I108">
         <v>0</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="4">
         <v>33.822725567986723</v>
       </c>
       <c r="K108">
@@ -7497,8 +7488,8 @@
       <c r="F109" s="3">
         <v>806317424</v>
       </c>
-      <c r="G109" s="3" t="b">
-        <v>0</v>
+      <c r="G109" s="3">
+        <v>806317</v>
       </c>
       <c r="H109" t="s">
         <v>24</v>
@@ -7506,7 +7497,7 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109" s="5">
+      <c r="J109" s="4">
         <v>23.4489933405561</v>
       </c>
       <c r="K109">
@@ -7571,7 +7562,7 @@
       <c r="I110">
         <v>0</v>
       </c>
-      <c r="J110" s="5">
+      <c r="J110" s="4">
         <v>19.606290033360743</v>
       </c>
       <c r="K110">
@@ -7627,16 +7618,14 @@
       <c r="F111" s="3">
         <v>7683888349</v>
       </c>
-      <c r="G111" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G111" s="3"/>
       <c r="H111" t="s">
         <v>24</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111" s="5">
+      <c r="J111" s="4">
         <v>21.045661177734502</v>
       </c>
       <c r="K111">
@@ -7692,8 +7681,8 @@
       <c r="F112" s="3">
         <v>9542539632</v>
       </c>
-      <c r="G112" s="3" t="b">
-        <v>0</v>
+      <c r="G112" s="3">
+        <v>9742539632</v>
       </c>
       <c r="H112" t="s">
         <v>24</v>
@@ -7701,7 +7690,7 @@
       <c r="I112">
         <v>2</v>
       </c>
-      <c r="J112" s="5">
+      <c r="J112" s="4">
         <v>59.7601163585826</v>
       </c>
       <c r="K112">
@@ -7757,8 +7746,8 @@
       <c r="F113" s="3">
         <v>43139019</v>
       </c>
-      <c r="G113" s="3" t="b">
-        <v>0</v>
+      <c r="G113" s="3">
+        <v>431319019</v>
       </c>
       <c r="H113" t="s">
         <v>24</v>
@@ -7766,7 +7755,7 @@
       <c r="I113">
         <v>3</v>
       </c>
-      <c r="J113" s="5">
+      <c r="J113" s="4">
         <v>29.950592338773152</v>
       </c>
       <c r="K113">
@@ -7831,7 +7820,7 @@
       <c r="I114">
         <v>0</v>
       </c>
-      <c r="J114" s="5">
+      <c r="J114" s="4">
         <v>21.543064330502329</v>
       </c>
       <c r="K114">
@@ -7887,8 +7876,8 @@
       <c r="F115" s="3">
         <v>723012543</v>
       </c>
-      <c r="G115" s="3" t="b">
-        <v>0</v>
+      <c r="G115" s="3">
+        <v>72301254</v>
       </c>
       <c r="H115" t="s">
         <v>24</v>
@@ -7896,7 +7885,7 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115" s="5">
+      <c r="J115" s="4">
         <v>18.571816130071866</v>
       </c>
       <c r="K115">
@@ -7972,7 +7961,7 @@
         <v>4</v>
       </c>
       <c r="M116" s="2">
-        <v>2.4722973322727132E-5</v>
+        <v>2.3148148148148147E-5</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -8027,7 +8016,7 @@
       <c r="I117">
         <v>0</v>
       </c>
-      <c r="J117" s="5">
+      <c r="J117" s="4">
         <v>15.863935104916376</v>
       </c>
       <c r="K117">
@@ -8092,7 +8081,7 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118" s="5">
+      <c r="J118" s="4">
         <v>8.6380205561157073</v>
       </c>
       <c r="K118">
@@ -8157,7 +8146,7 @@
       <c r="I119">
         <v>0</v>
       </c>
-      <c r="J119" s="5">
+      <c r="J119" s="4">
         <v>6.8619285380999813</v>
       </c>
       <c r="K119">
@@ -8222,7 +8211,7 @@
       <c r="I120">
         <v>0</v>
       </c>
-      <c r="J120" s="5">
+      <c r="J120" s="4">
         <v>18.112804329948048</v>
       </c>
       <c r="K120">
@@ -8287,7 +8276,7 @@
       <c r="I121">
         <v>0</v>
       </c>
-      <c r="J121" s="5">
+      <c r="J121" s="4">
         <v>44.968194388848197</v>
       </c>
       <c r="K121">
@@ -8352,7 +8341,7 @@
       <c r="I122">
         <v>0</v>
       </c>
-      <c r="J122" s="5">
+      <c r="J122" s="4">
         <v>50.0045877317093</v>
       </c>
       <c r="K122">
@@ -8417,7 +8406,7 @@
       <c r="I123">
         <v>0</v>
       </c>
-      <c r="J123" s="5">
+      <c r="J123" s="4">
         <v>39.774288028678015</v>
       </c>
       <c r="K123">
@@ -8482,7 +8471,7 @@
       <c r="I124">
         <v>0</v>
       </c>
-      <c r="J124" s="5">
+      <c r="J124" s="4">
         <v>46.710461433785667</v>
       </c>
       <c r="K124">
@@ -8547,7 +8536,7 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125" s="5">
+      <c r="J125" s="4">
         <v>12.365776600684843</v>
       </c>
       <c r="K125">
@@ -8612,7 +8601,7 @@
       <c r="I126">
         <v>0</v>
       </c>
-      <c r="J126" s="5">
+      <c r="J126" s="4">
         <v>17.784205529062699</v>
       </c>
       <c r="K126">
@@ -8677,7 +8666,7 @@
       <c r="I127">
         <v>0</v>
       </c>
-      <c r="J127" s="5">
+      <c r="J127" s="4">
         <v>60.290527283754763</v>
       </c>
       <c r="K127">
@@ -8742,7 +8731,7 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128" s="5">
+      <c r="J128" s="4">
         <v>55.659103162953116</v>
       </c>
       <c r="K128">
@@ -8807,7 +8796,7 @@
       <c r="I129">
         <v>0</v>
       </c>
-      <c r="J129" s="5">
+      <c r="J129" s="4">
         <v>55.108114612578547</v>
       </c>
       <c r="K129">
@@ -8872,7 +8861,7 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130" s="5">
+      <c r="J130" s="4">
         <v>43.660792217780177</v>
       </c>
       <c r="K130">
@@ -8937,7 +8926,7 @@
       <c r="I131">
         <v>2</v>
       </c>
-      <c r="J131" s="5">
+      <c r="J131" s="4">
         <v>117.54842350865999</v>
       </c>
       <c r="K131">
@@ -9002,7 +8991,7 @@
       <c r="I132">
         <v>3</v>
       </c>
-      <c r="J132" s="5">
+      <c r="J132" s="4">
         <v>52.261999565387235</v>
       </c>
       <c r="K132">
@@ -9067,7 +9056,7 @@
       <c r="I133">
         <v>0</v>
       </c>
-      <c r="J133" s="5">
+      <c r="J133" s="4">
         <v>83.801716528413607</v>
       </c>
       <c r="K133">
@@ -9132,7 +9121,7 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="4">
         <v>29.118494757581953</v>
       </c>
       <c r="K134">
@@ -9197,7 +9186,7 @@
       <c r="I135">
         <v>2</v>
       </c>
-      <c r="J135" s="5">
+      <c r="J135" s="4">
         <v>17.036461024467872</v>
       </c>
       <c r="K135">
@@ -9273,7 +9262,7 @@
         <v>11</v>
       </c>
       <c r="M136" s="2">
-        <v>1.1407392661320366E-4</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -9328,7 +9317,7 @@
       <c r="I137">
         <v>0</v>
       </c>
-      <c r="J137" s="5">
+      <c r="J137" s="4">
         <v>48.144012740619203</v>
       </c>
       <c r="K137">
@@ -9393,7 +9382,7 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138" s="5">
+      <c r="J138" s="4">
         <v>13.863946697063749</v>
       </c>
       <c r="K138">
@@ -9458,7 +9447,7 @@
       <c r="I139">
         <v>2</v>
       </c>
-      <c r="J139" s="5">
+      <c r="J139" s="4">
         <v>32.838412492131702</v>
       </c>
       <c r="K139">
@@ -9523,7 +9512,7 @@
       <c r="I140">
         <v>0</v>
       </c>
-      <c r="J140" s="5">
+      <c r="J140" s="4">
         <v>44.191747190130499</v>
       </c>
       <c r="K140">
@@ -9588,7 +9577,7 @@
       <c r="I141">
         <v>0</v>
       </c>
-      <c r="J141" s="5">
+      <c r="J141" s="4">
         <v>21.879608771471979</v>
       </c>
       <c r="K141">
@@ -9653,7 +9642,7 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142" s="5">
+      <c r="J142" s="4">
         <v>73.812286142418799</v>
       </c>
       <c r="K142">
@@ -9718,7 +9707,7 @@
       <c r="I143">
         <v>2</v>
       </c>
-      <c r="J143" s="5">
+      <c r="J143" s="4">
         <v>51.917521640267218</v>
       </c>
       <c r="K143">
@@ -9783,7 +9772,7 @@
       <c r="I144">
         <v>0</v>
       </c>
-      <c r="J144" s="5">
+      <c r="J144" s="4">
         <v>19.742347674393155</v>
       </c>
       <c r="K144">
@@ -9848,7 +9837,7 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145" s="5">
+      <c r="J145" s="4">
         <v>74.465782365267359</v>
       </c>
       <c r="K145">
@@ -9913,7 +9902,7 @@
       <c r="I146">
         <v>2</v>
       </c>
-      <c r="J146" s="5">
+      <c r="J146" s="4">
         <v>54.06933632862205</v>
       </c>
       <c r="K146">
@@ -9978,7 +9967,7 @@
       <c r="I147">
         <v>3</v>
       </c>
-      <c r="J147" s="5">
+      <c r="J147" s="4">
         <v>25.542769141918974</v>
       </c>
       <c r="K147">
@@ -10043,7 +10032,7 @@
       <c r="I148">
         <v>4</v>
       </c>
-      <c r="J148" s="5">
+      <c r="J148" s="4">
         <v>49.393690011557602</v>
       </c>
       <c r="K148">
@@ -10108,7 +10097,7 @@
       <c r="I149">
         <v>5</v>
       </c>
-      <c r="J149" s="5">
+      <c r="J149" s="4">
         <v>14.46074651599424</v>
       </c>
       <c r="K149">
@@ -10173,7 +10162,7 @@
       <c r="I150">
         <v>6</v>
       </c>
-      <c r="J150" s="5">
+      <c r="J150" s="4">
         <v>102.17092589827701</v>
       </c>
       <c r="K150">
@@ -10238,7 +10227,7 @@
       <c r="I151">
         <v>7</v>
       </c>
-      <c r="J151" s="5">
+      <c r="J151" s="4">
         <v>31.9226507527077</v>
       </c>
       <c r="K151">
@@ -10303,7 +10292,7 @@
       <c r="I152">
         <v>8</v>
       </c>
-      <c r="J152" s="5">
+      <c r="J152" s="4">
         <v>27.17699212160548</v>
       </c>
       <c r="K152">
@@ -10368,7 +10357,7 @@
       <c r="I153">
         <v>0</v>
       </c>
-      <c r="J153" s="5">
+      <c r="J153" s="4">
         <v>16.415185597188501</v>
       </c>
       <c r="K153">
@@ -10433,7 +10422,7 @@
       <c r="I154">
         <v>0</v>
       </c>
-      <c r="J154" s="5">
+      <c r="J154" s="4">
         <v>11.45068491128691</v>
       </c>
       <c r="K154">
@@ -10508,7 +10497,7 @@
         <v>7</v>
       </c>
       <c r="M155" s="2">
-        <v>7.6530352809315306E-5</v>
+        <v>8.1018518518518516E-5</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -10563,7 +10552,7 @@
       <c r="I156">
         <v>0</v>
       </c>
-      <c r="J156" s="5">
+      <c r="J156" s="4">
         <v>24.387777517275158</v>
       </c>
       <c r="K156">
@@ -10628,7 +10617,7 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157" s="5">
+      <c r="J157" s="4">
         <v>44.457467870021297</v>
       </c>
       <c r="K157">
@@ -10693,7 +10682,7 @@
       <c r="I158">
         <v>2</v>
       </c>
-      <c r="J158" s="5">
+      <c r="J158" s="4">
         <v>40.509583309867288</v>
       </c>
       <c r="K158">
@@ -10758,7 +10747,7 @@
       <c r="I159">
         <v>3</v>
       </c>
-      <c r="J159" s="5">
+      <c r="J159" s="4">
         <v>12.200719557814129</v>
       </c>
       <c r="K159">
@@ -10823,7 +10812,7 @@
       <c r="I160">
         <v>0</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="4">
         <v>16.713833815927416</v>
       </c>
       <c r="K160">
@@ -10888,7 +10877,7 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161" s="5">
+      <c r="J161" s="4">
         <v>14.07524452259312</v>
       </c>
       <c r="K161">
@@ -10953,7 +10942,7 @@
       <c r="I162">
         <v>2</v>
       </c>
-      <c r="J162" s="5">
+      <c r="J162" s="4">
         <v>31.096713425499171</v>
       </c>
       <c r="K162">
@@ -11018,7 +11007,7 @@
       <c r="I163">
         <v>0</v>
       </c>
-      <c r="J163" s="5">
+      <c r="J163" s="4">
         <v>11.827806018753435</v>
       </c>
       <c r="K163">
@@ -11083,7 +11072,7 @@
       <c r="I164">
         <v>0</v>
       </c>
-      <c r="J164" s="5">
+      <c r="J164" s="4">
         <v>28.82004102743327</v>
       </c>
       <c r="K164">
@@ -11148,7 +11137,7 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165" s="5">
+      <c r="J165" s="4">
         <v>9.2850897680644433</v>
       </c>
       <c r="K165">
@@ -11213,7 +11202,7 @@
       <c r="I166">
         <v>2</v>
       </c>
-      <c r="J166" s="5">
+      <c r="J166" s="4">
         <v>26.12250953181643</v>
       </c>
       <c r="K166">
@@ -11278,7 +11267,7 @@
       <c r="I167">
         <v>3</v>
       </c>
-      <c r="J167" s="5">
+      <c r="J167" s="4">
         <v>15.195640305461099</v>
       </c>
       <c r="K167">
@@ -11343,7 +11332,7 @@
       <c r="I168">
         <v>0</v>
       </c>
-      <c r="J168" s="5">
+      <c r="J168" s="4">
         <v>20.548038261579457</v>
       </c>
       <c r="K168">
@@ -11408,7 +11397,7 @@
       <c r="I169">
         <v>0</v>
       </c>
-      <c r="J169" s="5">
+      <c r="J169" s="4">
         <v>13.291791614634029</v>
       </c>
       <c r="K169">
@@ -11473,7 +11462,7 @@
       <c r="I170">
         <v>0</v>
       </c>
-      <c r="J170" s="5">
+      <c r="J170" s="4">
         <v>45.863034305067025</v>
       </c>
       <c r="K170">
@@ -11538,7 +11527,7 @@
       <c r="I171">
         <v>0</v>
       </c>
-      <c r="J171" s="5">
+      <c r="J171" s="4">
         <v>13.938640146303273</v>
       </c>
       <c r="K171">
@@ -11603,7 +11592,7 @@
       <c r="I172">
         <v>0</v>
       </c>
-      <c r="J172" s="5">
+      <c r="J172" s="4">
         <v>77.501628847668798</v>
       </c>
       <c r="K172">
@@ -11668,7 +11657,7 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173" s="5">
+      <c r="J173" s="4">
         <v>33.115502980893503</v>
       </c>
       <c r="K173">
@@ -11733,7 +11722,7 @@
       <c r="I174">
         <v>2</v>
       </c>
-      <c r="J174" s="5">
+      <c r="J174" s="4">
         <v>38.866863270753598</v>
       </c>
       <c r="K174">
@@ -11798,7 +11787,7 @@
       <c r="I175">
         <v>3</v>
       </c>
-      <c r="J175" s="5">
+      <c r="J175" s="4">
         <v>30.824321683302301</v>
       </c>
       <c r="K175">
@@ -11863,7 +11852,7 @@
       <c r="I176">
         <v>4</v>
       </c>
-      <c r="J176" s="5">
+      <c r="J176" s="4">
         <v>15.478044967867795</v>
       </c>
       <c r="K176">
@@ -11928,7 +11917,7 @@
       <c r="I177">
         <v>0</v>
       </c>
-      <c r="J177" s="5">
+      <c r="J177" s="4">
         <v>28.692351391648408</v>
       </c>
       <c r="K177">
@@ -11993,7 +11982,7 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178" s="5">
+      <c r="J178" s="4">
         <v>40.214712658896758</v>
       </c>
       <c r="K178">
@@ -12058,7 +12047,7 @@
       <c r="I179">
         <v>2</v>
       </c>
-      <c r="J179" s="5">
+      <c r="J179" s="4">
         <v>16.85693100295509</v>
       </c>
       <c r="K179">
@@ -12123,7 +12112,7 @@
       <c r="I180">
         <v>0</v>
       </c>
-      <c r="J180" s="5">
+      <c r="J180" s="4">
         <v>20.397578935147173</v>
       </c>
       <c r="K180">
@@ -12188,7 +12177,7 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181" s="5">
+      <c r="J181" s="4">
         <v>30.006699816668768</v>
       </c>
       <c r="K181">
@@ -12263,7 +12252,7 @@
         <v>9</v>
       </c>
       <c r="M182" s="2">
-        <v>8.2610412072573922E-5</v>
+        <v>8.1018518518518516E-5</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -12318,7 +12307,7 @@
       <c r="I183">
         <v>2</v>
       </c>
-      <c r="J183" s="5">
+      <c r="J183" s="4">
         <v>22.862460396929613</v>
       </c>
       <c r="K183">
@@ -12383,7 +12372,7 @@
       <c r="I184">
         <v>3</v>
       </c>
-      <c r="J184" s="5">
+      <c r="J184" s="4">
         <v>22.426932232278993</v>
       </c>
       <c r="K184">
@@ -12448,7 +12437,7 @@
       <c r="I185">
         <v>0</v>
       </c>
-      <c r="J185" s="5">
+      <c r="J185" s="4">
         <v>12.641882896209555</v>
       </c>
       <c r="K185">
@@ -12513,7 +12502,7 @@
       <c r="I186">
         <v>0</v>
       </c>
-      <c r="J186" s="5">
+      <c r="J186" s="4">
         <v>9.8720082343273461</v>
       </c>
       <c r="K186">
@@ -12578,7 +12567,7 @@
       <c r="I187">
         <v>0</v>
       </c>
-      <c r="J187" s="5">
+      <c r="J187" s="4">
         <v>24.437822359653293</v>
       </c>
       <c r="K187">
@@ -12643,7 +12632,7 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188" s="5">
+      <c r="J188" s="4">
         <v>46.94422947608161</v>
       </c>
       <c r="K188">
@@ -12708,7 +12697,7 @@
       <c r="I189">
         <v>2</v>
       </c>
-      <c r="J189" s="5">
+      <c r="J189" s="4">
         <v>10.252563464597209</v>
       </c>
       <c r="K189">
@@ -12773,7 +12762,7 @@
       <c r="I190">
         <v>3</v>
       </c>
-      <c r="J190" s="5">
+      <c r="J190" s="4">
         <v>35.774378624941576</v>
       </c>
       <c r="K190">
@@ -12838,7 +12827,7 @@
       <c r="I191">
         <v>0</v>
       </c>
-      <c r="J191" s="5">
+      <c r="J191" s="4">
         <v>16.924156093923159</v>
       </c>
       <c r="K191">
@@ -12903,7 +12892,7 @@
       <c r="I192">
         <v>0</v>
       </c>
-      <c r="J192" s="5">
+      <c r="J192" s="4">
         <v>20.003988409913042</v>
       </c>
       <c r="K192">
@@ -12968,7 +12957,7 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193" s="5">
+      <c r="J193" s="4">
         <v>15.199909937697079</v>
       </c>
       <c r="K193">
@@ -13033,7 +13022,7 @@
       <c r="I194">
         <v>2</v>
       </c>
-      <c r="J194" s="5">
+      <c r="J194" s="4">
         <v>41.805386322343907</v>
       </c>
       <c r="K194">
@@ -13098,7 +13087,7 @@
       <c r="I195">
         <v>0</v>
       </c>
-      <c r="J195" s="5">
+      <c r="J195" s="4">
         <v>41.675118882901863</v>
       </c>
       <c r="K195">
@@ -13163,7 +13152,7 @@
       <c r="I196">
         <v>0</v>
       </c>
-      <c r="J196" s="5">
+      <c r="J196" s="4">
         <v>43.681286888512538</v>
       </c>
       <c r="K196">
@@ -13228,7 +13217,7 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197" s="5">
+      <c r="J197" s="4">
         <v>54.061237478975798</v>
       </c>
       <c r="K197">
@@ -13293,7 +13282,7 @@
       <c r="I198">
         <v>2</v>
       </c>
-      <c r="J198" s="5">
+      <c r="J198" s="4">
         <v>67.575749088239405</v>
       </c>
       <c r="K198">
@@ -13358,7 +13347,7 @@
       <c r="I199">
         <v>3</v>
       </c>
-      <c r="J199" s="5">
+      <c r="J199" s="4">
         <v>20.157307336676336</v>
       </c>
       <c r="K199">
@@ -13423,7 +13412,7 @@
       <c r="I200">
         <v>4</v>
       </c>
-      <c r="J200" s="5">
+      <c r="J200" s="4">
         <v>37.64458143037475</v>
       </c>
       <c r="K200">
@@ -13488,7 +13477,7 @@
       <c r="I201">
         <v>0</v>
       </c>
-      <c r="J201" s="5">
+      <c r="J201" s="4">
         <v>40.585279762360393</v>
       </c>
       <c r="K201">
@@ -13553,7 +13542,7 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202" s="5">
+      <c r="J202" s="4">
         <v>20.621403800174278</v>
       </c>
       <c r="K202">
@@ -13618,7 +13607,7 @@
       <c r="I203">
         <v>2</v>
       </c>
-      <c r="J203" s="5">
+      <c r="J203" s="4">
         <v>24.501536663513782</v>
       </c>
       <c r="K203">
@@ -13683,7 +13672,7 @@
       <c r="I204">
         <v>0</v>
       </c>
-      <c r="J204" s="5">
+      <c r="J204" s="4">
         <v>23.882256207209085</v>
       </c>
       <c r="K204">
@@ -13748,7 +13737,7 @@
       <c r="I205">
         <v>0</v>
       </c>
-      <c r="J205" s="5">
+      <c r="J205" s="4">
         <v>44.699613999143402</v>
       </c>
       <c r="K205">
@@ -13823,7 +13812,7 @@
         <v>9</v>
       </c>
       <c r="M206" s="2">
-        <v>1.0221565993908797E-4</v>
+        <v>1.0416666666666667E-4</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -13878,7 +13867,7 @@
       <c r="I207">
         <v>0</v>
       </c>
-      <c r="J207" s="5">
+      <c r="J207" s="4">
         <v>23.168566981262799</v>
       </c>
       <c r="K207">
@@ -13943,7 +13932,7 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208" s="5">
+      <c r="J208" s="4">
         <v>24.838937674270301</v>
       </c>
       <c r="K208">
@@ -14008,7 +13997,7 @@
       <c r="I209">
         <v>2</v>
       </c>
-      <c r="J209" s="5">
+      <c r="J209" s="4">
         <v>26.557691965745001</v>
       </c>
       <c r="K209">
@@ -14073,7 +14062,7 @@
       <c r="I210">
         <v>0</v>
       </c>
-      <c r="J210" s="5">
+      <c r="J210" s="4">
         <v>28.077521578329637</v>
       </c>
       <c r="K210">
@@ -14138,7 +14127,7 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211" s="5">
+      <c r="J211" s="4">
         <v>21.012666373443057</v>
       </c>
       <c r="K211">
@@ -14203,7 +14192,7 @@
       <c r="I212">
         <v>2</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="4">
         <v>21.774406431803101</v>
       </c>
       <c r="K212">
@@ -14268,7 +14257,7 @@
       <c r="I213">
         <v>3</v>
       </c>
-      <c r="J213" s="5">
+      <c r="J213" s="4">
         <v>36.979742669927063</v>
       </c>
       <c r="K213">
@@ -14333,7 +14322,7 @@
       <c r="I214">
         <v>0</v>
       </c>
-      <c r="J214" s="5">
+      <c r="J214" s="4">
         <v>45.183816034769734</v>
       </c>
       <c r="K214">
@@ -14398,7 +14387,7 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215" s="5">
+      <c r="J215" s="4">
         <v>16.576264045181635</v>
       </c>
       <c r="K215">
@@ -14463,7 +14452,7 @@
       <c r="I216">
         <v>0</v>
       </c>
-      <c r="J216" s="5">
+      <c r="J216" s="4">
         <v>20.946218811671699</v>
       </c>
       <c r="K216">
@@ -14528,7 +14517,7 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217" s="5">
+      <c r="J217" s="4">
         <v>10.276036482825504</v>
       </c>
       <c r="K217">
@@ -14593,7 +14582,7 @@
       <c r="I218">
         <v>2</v>
       </c>
-      <c r="J218" s="5">
+      <c r="J218" s="4">
         <v>63.654979151010942</v>
       </c>
       <c r="K218">
@@ -14658,7 +14647,7 @@
       <c r="I219">
         <v>0</v>
       </c>
-      <c r="J219" s="5">
+      <c r="J219" s="4">
         <v>32.996099867016511</v>
       </c>
       <c r="K219">
@@ -14723,7 +14712,7 @@
       <c r="I220">
         <v>0</v>
       </c>
-      <c r="J220" s="5">
+      <c r="J220" s="4">
         <v>44.457561523168039</v>
       </c>
       <c r="K220">
@@ -14788,7 +14777,7 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221" s="5">
+      <c r="J221" s="4">
         <v>67.748417519849895</v>
       </c>
       <c r="K221">
@@ -14853,7 +14842,7 @@
       <c r="I222">
         <v>2</v>
       </c>
-      <c r="J222" s="5">
+      <c r="J222" s="4">
         <v>41.903383021981099</v>
       </c>
       <c r="K222">
@@ -14918,7 +14907,7 @@
       <c r="I223">
         <v>0</v>
       </c>
-      <c r="J223" s="5">
+      <c r="J223" s="4">
         <v>54.125361290486865</v>
       </c>
       <c r="K223">
@@ -14983,7 +14972,7 @@
       <c r="I224">
         <v>0</v>
       </c>
-      <c r="J224" s="5">
+      <c r="J224" s="4">
         <v>47.1588291065951</v>
       </c>
       <c r="K224">
@@ -15048,7 +15037,7 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225" s="5">
+      <c r="J225" s="4">
         <v>47.032739008157037</v>
       </c>
       <c r="K225">
@@ -15113,7 +15102,7 @@
       <c r="I226">
         <v>2</v>
       </c>
-      <c r="J226" s="5">
+      <c r="J226" s="4">
         <v>66.428684208427882</v>
       </c>
       <c r="K226">
@@ -15188,7 +15177,7 @@
         <v>11</v>
       </c>
       <c r="M227" s="2">
-        <v>1.1160938640812592E-4</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -15243,7 +15232,7 @@
       <c r="I228">
         <v>2</v>
       </c>
-      <c r="J228" s="5">
+      <c r="J228" s="4">
         <v>23.356949014337921</v>
       </c>
       <c r="K228">
@@ -15308,7 +15297,7 @@
       <c r="I229">
         <v>3</v>
       </c>
-      <c r="J229" s="5">
+      <c r="J229" s="4">
         <v>14.841079276659581</v>
       </c>
       <c r="K229">
@@ -15373,7 +15362,7 @@
       <c r="I230">
         <v>0</v>
       </c>
-      <c r="J230" s="5">
+      <c r="J230" s="4">
         <v>55.266358315609899</v>
       </c>
       <c r="K230">
@@ -15438,7 +15427,7 @@
       <c r="I231">
         <v>0</v>
       </c>
-      <c r="J231" s="5">
+      <c r="J231" s="4">
         <v>29.757772914275709</v>
       </c>
       <c r="K231">
@@ -15503,7 +15492,7 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232" s="5">
+      <c r="J232" s="4">
         <v>44.914736587433183</v>
       </c>
       <c r="K232">
@@ -15568,7 +15557,7 @@
       <c r="I233">
         <v>2</v>
       </c>
-      <c r="J233" s="5">
+      <c r="J233" s="4">
         <v>36.724827870358411</v>
       </c>
       <c r="K233">
@@ -15633,7 +15622,7 @@
       <c r="I234">
         <v>0</v>
       </c>
-      <c r="J234" s="5">
+      <c r="J234" s="4">
         <v>18.800645246434232</v>
       </c>
       <c r="K234">
@@ -15698,7 +15687,7 @@
       <c r="I235">
         <v>0</v>
       </c>
-      <c r="J235" s="5">
+      <c r="J235" s="4">
         <v>33.996117252402158</v>
       </c>
       <c r="K235">
@@ -15763,7 +15752,7 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236" s="5">
+      <c r="J236" s="4">
         <v>33.169587191453061</v>
       </c>
       <c r="K236">
@@ -15828,7 +15817,7 @@
       <c r="I237">
         <v>0</v>
       </c>
-      <c r="J237" s="5">
+      <c r="J237" s="4">
         <v>26.0931630402455</v>
       </c>
       <c r="K237">
@@ -15893,7 +15882,7 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238" s="5">
+      <c r="J238" s="4">
         <v>58.658928463538821</v>
       </c>
       <c r="K238">
@@ -15958,7 +15947,7 @@
       <c r="I239">
         <v>0</v>
       </c>
-      <c r="J239" s="5">
+      <c r="J239" s="4">
         <v>60.699448327396183</v>
       </c>
       <c r="K239">
@@ -16023,7 +16012,7 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240" s="5">
+      <c r="J240" s="4">
         <v>28.076506666962203</v>
       </c>
       <c r="K240">
@@ -16088,7 +16077,7 @@
       <c r="I241">
         <v>2</v>
       </c>
-      <c r="J241" s="5">
+      <c r="J241" s="4">
         <v>88.492931433942232</v>
       </c>
       <c r="K241">
@@ -16153,7 +16142,7 @@
       <c r="I242">
         <v>3</v>
       </c>
-      <c r="J242" s="5">
+      <c r="J242" s="4">
         <v>45.043473041204372</v>
       </c>
       <c r="K242">
@@ -16218,7 +16207,7 @@
       <c r="I243">
         <v>4</v>
       </c>
-      <c r="J243" s="5">
+      <c r="J243" s="4">
         <v>31.217089930181093</v>
       </c>
       <c r="K243">
@@ -16283,7 +16272,7 @@
       <c r="I244">
         <v>5</v>
       </c>
-      <c r="J244" s="5">
+      <c r="J244" s="4">
         <v>26.640800812887679</v>
       </c>
       <c r="K244">
@@ -16348,7 +16337,7 @@
       <c r="I245">
         <v>6</v>
       </c>
-      <c r="J245" s="5">
+      <c r="J245" s="4">
         <v>18.508633194283561</v>
       </c>
       <c r="K245">
@@ -16413,7 +16402,7 @@
       <c r="I246">
         <v>0</v>
       </c>
-      <c r="J246" s="5">
+      <c r="J246" s="4">
         <v>33.773880165307332</v>
       </c>
       <c r="K246">
@@ -16488,7 +16477,7 @@
         <v>9</v>
       </c>
       <c r="M247" s="2">
-        <v>1.1038053832803318E-4</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -16543,7 +16532,7 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248" s="5">
+      <c r="J248" s="4">
         <v>19.463121488457933</v>
       </c>
       <c r="K248">
@@ -16608,7 +16597,7 @@
       <c r="I249">
         <v>0</v>
       </c>
-      <c r="J249" s="5">
+      <c r="J249" s="4">
         <v>78.9735280493733</v>
       </c>
       <c r="K249">
@@ -16673,7 +16662,7 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250" s="5">
+      <c r="J250" s="4">
         <v>14.467570824586019</v>
       </c>
       <c r="K250">
@@ -16738,7 +16727,7 @@
       <c r="I251">
         <v>2</v>
       </c>
-      <c r="J251" s="5">
+      <c r="J251" s="4">
         <v>42.429610115490398</v>
       </c>
       <c r="K251">
@@ -16803,7 +16792,7 @@
       <c r="I252">
         <v>3</v>
       </c>
-      <c r="J252" s="5">
+      <c r="J252" s="4">
         <v>32.84949100062591</v>
       </c>
       <c r="K252">
@@ -16868,7 +16857,7 @@
       <c r="I253">
         <v>0</v>
       </c>
-      <c r="J253" s="5">
+      <c r="J253" s="4">
         <v>35.118756824520403</v>
       </c>
       <c r="K253">
@@ -16933,7 +16922,7 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254" s="5">
+      <c r="J254" s="4">
         <v>21.720602808069351</v>
       </c>
       <c r="K254">
@@ -16998,7 +16987,7 @@
       <c r="I255">
         <v>0</v>
       </c>
-      <c r="J255" s="5">
+      <c r="J255" s="4">
         <v>25.0075155401444</v>
       </c>
       <c r="K255">
@@ -17063,7 +17052,7 @@
       <c r="I256">
         <v>0</v>
       </c>
-      <c r="J256" s="5">
+      <c r="J256" s="4">
         <v>16.377183368446765</v>
       </c>
       <c r="K256">
@@ -17128,7 +17117,7 @@
       <c r="I257">
         <v>0</v>
       </c>
-      <c r="J257" s="5">
+      <c r="J257" s="4">
         <v>15.59572806051712</v>
       </c>
       <c r="K257">
@@ -17193,7 +17182,7 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258" s="5">
+      <c r="J258" s="4">
         <v>37.0370887033556</v>
       </c>
       <c r="K258">
@@ -17258,7 +17247,7 @@
       <c r="I259">
         <v>0</v>
       </c>
-      <c r="J259" s="5">
+      <c r="J259" s="4">
         <v>95.475203782349197</v>
       </c>
       <c r="K259">
@@ -17323,7 +17312,7 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260" s="5">
+      <c r="J260" s="4">
         <v>60.080558904714216</v>
       </c>
       <c r="K260">
@@ -17388,7 +17377,7 @@
       <c r="I261">
         <v>2</v>
       </c>
-      <c r="J261" s="5">
+      <c r="J261" s="4">
         <v>65.202155506449458</v>
       </c>
       <c r="K261">
@@ -17453,7 +17442,7 @@
       <c r="I262">
         <v>3</v>
       </c>
-      <c r="J262" s="5">
+      <c r="J262" s="4">
         <v>14.426191717048221</v>
       </c>
       <c r="K262">
@@ -17518,7 +17507,7 @@
       <c r="I263">
         <v>0</v>
       </c>
-      <c r="J263" s="5">
+      <c r="J263" s="4">
         <v>48.686452337146903</v>
       </c>
       <c r="K263">
@@ -17583,7 +17572,7 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264" s="5">
+      <c r="J264" s="4">
         <v>34.172041546242497</v>
       </c>
       <c r="K264">
@@ -17648,7 +17637,7 @@
       <c r="I265">
         <v>2</v>
       </c>
-      <c r="J265" s="5">
+      <c r="J265" s="4">
         <v>44.661575478753271</v>
       </c>
       <c r="K265">
@@ -17723,7 +17712,7 @@
         <v>12</v>
       </c>
       <c r="M266" s="2">
-        <v>1.2152993451514469E-4</v>
+        <v>1.273148148148148E-4</v>
       </c>
       <c r="N266">
         <v>0</v>
@@ -17778,7 +17767,7 @@
       <c r="I267">
         <v>2</v>
       </c>
-      <c r="J267" s="5">
+      <c r="J267" s="4">
         <v>15.499813657891499</v>
       </c>
       <c r="K267">
@@ -17843,7 +17832,7 @@
       <c r="I268">
         <v>0</v>
       </c>
-      <c r="J268" s="5">
+      <c r="J268" s="4">
         <v>12</v>
       </c>
       <c r="K268">
@@ -17908,7 +17897,7 @@
       <c r="I269">
         <v>0</v>
       </c>
-      <c r="J269" s="5">
+      <c r="J269" s="4">
         <v>55.611706361864037</v>
       </c>
       <c r="K269">
@@ -17973,7 +17962,7 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270" s="5">
+      <c r="J270" s="4">
         <v>35.81297997161245</v>
       </c>
       <c r="K270">
@@ -18038,7 +18027,7 @@
       <c r="I271">
         <v>2</v>
       </c>
-      <c r="J271" s="5">
+      <c r="J271" s="4">
         <v>62.190943600944294</v>
       </c>
       <c r="K271">
@@ -18103,7 +18092,7 @@
       <c r="I272">
         <v>0</v>
       </c>
-      <c r="J272" s="5">
+      <c r="J272" s="4">
         <v>38.991231099508589</v>
       </c>
       <c r="K272">
@@ -18168,7 +18157,7 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273" s="5">
+      <c r="J273" s="4">
         <v>34.400046365808535</v>
       </c>
       <c r="K273">
@@ -18233,7 +18222,7 @@
       <c r="I274">
         <v>0</v>
       </c>
-      <c r="J274" s="5">
+      <c r="J274" s="4">
         <v>33.143565764342135</v>
       </c>
       <c r="K274">
@@ -18298,7 +18287,7 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275" s="5">
+      <c r="J275" s="4">
         <v>24.257812466864543</v>
       </c>
       <c r="K275">
@@ -18363,7 +18352,7 @@
       <c r="I276">
         <v>2</v>
       </c>
-      <c r="J276" s="5">
+      <c r="J276" s="4">
         <v>35.296778741351574</v>
       </c>
       <c r="K276">
@@ -18428,7 +18417,7 @@
       <c r="I277">
         <v>0</v>
       </c>
-      <c r="J277" s="5">
+      <c r="J277" s="4">
         <v>44.193216644371702</v>
       </c>
       <c r="K277">
@@ -18493,7 +18482,7 @@
       <c r="I278">
         <v>0</v>
       </c>
-      <c r="J278" s="5">
+      <c r="J278" s="4">
         <v>73.973882248599836</v>
       </c>
       <c r="K278">
@@ -18558,7 +18547,7 @@
       <c r="I279">
         <v>1</v>
       </c>
-      <c r="J279" s="5">
+      <c r="J279" s="4">
         <v>34.01667256566715</v>
       </c>
       <c r="K279">
@@ -18623,7 +18612,7 @@
       <c r="I280">
         <v>2</v>
       </c>
-      <c r="J280" s="5">
+      <c r="J280" s="4">
         <v>68.253648436395864</v>
       </c>
       <c r="K280">
@@ -18688,7 +18677,7 @@
       <c r="I281">
         <v>3</v>
       </c>
-      <c r="J281" s="5">
+      <c r="J281" s="4">
         <v>28.798115239079031</v>
       </c>
       <c r="K281">
@@ -18753,7 +18742,7 @@
       <c r="I282">
         <v>0</v>
       </c>
-      <c r="J282" s="5">
+      <c r="J282" s="4">
         <v>38.084698924396946</v>
       </c>
       <c r="K282">
@@ -18818,7 +18807,7 @@
       <c r="I283">
         <v>0</v>
       </c>
-      <c r="J283" s="5">
+      <c r="J283" s="4">
         <v>63.009022660794173</v>
       </c>
       <c r="K283">
@@ -18893,7 +18882,7 @@
         <v>13</v>
       </c>
       <c r="M284" s="2">
-        <v>1.342895111770231E-4</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="N284">
         <v>0</v>
@@ -18948,7 +18937,7 @@
       <c r="I285">
         <v>2</v>
       </c>
-      <c r="J285" s="5">
+      <c r="J285" s="4">
         <v>74.397386234305202</v>
       </c>
       <c r="K285">
@@ -19013,7 +19002,7 @@
       <c r="I286">
         <v>3</v>
       </c>
-      <c r="J286" s="5">
+      <c r="J286" s="4">
         <v>61.484086323231338</v>
       </c>
       <c r="K286">
@@ -19078,7 +19067,7 @@
       <c r="I287">
         <v>4</v>
       </c>
-      <c r="J287" s="5">
+      <c r="J287" s="4">
         <v>82.927028758994695</v>
       </c>
       <c r="K287">
@@ -19143,7 +19132,7 @@
       <c r="I288">
         <v>5</v>
       </c>
-      <c r="J288" s="5">
+      <c r="J288" s="4">
         <v>46.531778424558034</v>
       </c>
       <c r="K288">
@@ -19208,7 +19197,7 @@
       <c r="I289">
         <v>0</v>
       </c>
-      <c r="J289" s="5">
+      <c r="J289" s="4">
         <v>10.610457611374066</v>
       </c>
       <c r="K289">
@@ -19273,7 +19262,7 @@
       <c r="I290">
         <v>1</v>
       </c>
-      <c r="J290" s="5">
+      <c r="J290" s="4">
         <v>29.351891677816401</v>
       </c>
       <c r="K290">
@@ -19338,7 +19327,7 @@
       <c r="I291">
         <v>2</v>
       </c>
-      <c r="J291" s="5">
+      <c r="J291" s="4">
         <v>10.53026322455211</v>
       </c>
       <c r="K291">
@@ -19403,7 +19392,7 @@
       <c r="I292">
         <v>0</v>
       </c>
-      <c r="J292" s="5">
+      <c r="J292" s="4">
         <v>25.842281175696499</v>
       </c>
       <c r="K292">
@@ -19468,7 +19457,7 @@
       <c r="I293">
         <v>1</v>
       </c>
-      <c r="J293" s="5">
+      <c r="J293" s="4">
         <v>22.258816806841299</v>
       </c>
       <c r="K293">
@@ -19533,7 +19522,7 @@
       <c r="I294">
         <v>2</v>
       </c>
-      <c r="J294" s="5">
+      <c r="J294" s="4">
         <v>9.3459276211980686</v>
       </c>
       <c r="K294">
@@ -19598,7 +19587,7 @@
       <c r="I295">
         <v>3</v>
       </c>
-      <c r="J295" s="5">
+      <c r="J295" s="4">
         <v>37.472271431046202</v>
       </c>
       <c r="K295">
@@ -19663,7 +19652,7 @@
       <c r="I296">
         <v>4</v>
       </c>
-      <c r="J296" s="5">
+      <c r="J296" s="4">
         <v>8.6635756846864798</v>
       </c>
       <c r="K296">
@@ -19728,7 +19717,7 @@
       <c r="I297">
         <v>0</v>
       </c>
-      <c r="J297" s="5">
+      <c r="J297" s="4">
         <v>7.1691397771625631</v>
       </c>
       <c r="K297">
@@ -19793,7 +19782,7 @@
       <c r="I298">
         <v>0</v>
       </c>
-      <c r="J298" s="5">
+      <c r="J298" s="4">
         <v>21.694964501460557</v>
       </c>
       <c r="K298">
@@ -19858,7 +19847,7 @@
       <c r="I299">
         <v>1</v>
       </c>
-      <c r="J299" s="5">
+      <c r="J299" s="4">
         <v>29.548251849928359</v>
       </c>
       <c r="K299">
@@ -19923,7 +19912,7 @@
       <c r="I300">
         <v>2</v>
       </c>
-      <c r="J300" s="5">
+      <c r="J300" s="4">
         <v>12.293503426815725</v>
       </c>
       <c r="K300">
@@ -19988,7 +19977,7 @@
       <c r="I301">
         <v>3</v>
       </c>
-      <c r="J301" s="5">
+      <c r="J301" s="4">
         <v>36.466465466384356</v>
       </c>
       <c r="K301">
@@ -20053,7 +20042,7 @@
       <c r="I302">
         <v>4</v>
       </c>
-      <c r="J302" s="5">
+      <c r="J302" s="4">
         <v>12.095702709405016</v>
       </c>
       <c r="K302">
@@ -20118,7 +20107,7 @@
       <c r="I303">
         <v>0</v>
       </c>
-      <c r="J303" s="5">
+      <c r="J303" s="4">
         <v>26.383632046722987</v>
       </c>
       <c r="K303">
@@ -20183,7 +20172,7 @@
       <c r="I304">
         <v>0</v>
       </c>
-      <c r="J304" s="5">
+      <c r="J304" s="4">
         <v>28.173515287809014</v>
       </c>
       <c r="K304">
@@ -20248,7 +20237,7 @@
       <c r="I305">
         <v>0</v>
       </c>
-      <c r="J305" s="5">
+      <c r="J305" s="4">
         <v>41.717616858809464</v>
       </c>
       <c r="K305">
@@ -20313,7 +20302,7 @@
       <c r="I306">
         <v>0</v>
       </c>
-      <c r="J306" s="5">
+      <c r="J306" s="4">
         <v>13.807434459269782</v>
       </c>
       <c r="K306">
@@ -20378,7 +20367,7 @@
       <c r="I307">
         <v>0</v>
       </c>
-      <c r="J307" s="5">
+      <c r="J307" s="4">
         <v>39.954954060371534</v>
       </c>
       <c r="K307">
@@ -20443,7 +20432,7 @@
       <c r="I308">
         <v>0</v>
       </c>
-      <c r="J308" s="5">
+      <c r="J308" s="4">
         <v>14.241225598208228</v>
       </c>
       <c r="K308">
@@ -20508,7 +20497,7 @@
       <c r="I309">
         <v>0</v>
       </c>
-      <c r="J309" s="5">
+      <c r="J309" s="4">
         <v>40.766880542280113</v>
       </c>
       <c r="K309">
@@ -20583,7 +20572,7 @@
         <v>11</v>
       </c>
       <c r="M310" s="2">
-        <v>1.3240624430104931E-4</v>
+        <v>1.273148148148148E-4</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -20638,7 +20627,7 @@
       <c r="I311">
         <v>1</v>
       </c>
-      <c r="J311" s="5">
+      <c r="J311" s="4">
         <v>45.560100492389338</v>
       </c>
       <c r="K311">
@@ -20703,7 +20692,7 @@
       <c r="I312">
         <v>2</v>
       </c>
-      <c r="J312" s="5">
+      <c r="J312" s="4">
         <v>39.332591310073695</v>
       </c>
       <c r="K312">
@@ -20768,7 +20757,7 @@
       <c r="I313">
         <v>3</v>
       </c>
-      <c r="J313" s="5">
+      <c r="J313" s="4">
         <v>37.644726390859766</v>
       </c>
       <c r="K313">
@@ -20833,7 +20822,7 @@
       <c r="I314">
         <v>0</v>
       </c>
-      <c r="J314" s="5">
+      <c r="J314" s="4">
         <v>40.533660377106884</v>
       </c>
       <c r="K314">
@@ -20898,7 +20887,7 @@
       <c r="I315">
         <v>1</v>
       </c>
-      <c r="J315" s="5">
+      <c r="J315" s="4">
         <v>33.868266493561585</v>
       </c>
       <c r="K315">
@@ -20963,7 +20952,7 @@
       <c r="I316">
         <v>2</v>
       </c>
-      <c r="J316" s="5">
+      <c r="J316" s="4">
         <v>31.803733964095613</v>
       </c>
       <c r="K316">
@@ -21028,7 +21017,7 @@
       <c r="I317">
         <v>3</v>
       </c>
-      <c r="J317" s="5">
+      <c r="J317" s="4">
         <v>23.409219317407988</v>
       </c>
       <c r="K317">
@@ -21093,7 +21082,7 @@
       <c r="I318">
         <v>4</v>
       </c>
-      <c r="J318" s="5">
+      <c r="J318" s="4">
         <v>49.182352122407089</v>
       </c>
       <c r="K318">
@@ -21158,7 +21147,7 @@
       <c r="I319">
         <v>0</v>
       </c>
-      <c r="J319" s="5">
+      <c r="J319" s="4">
         <v>11.852170645157308</v>
       </c>
       <c r="K319">
@@ -21223,7 +21212,7 @@
       <c r="I320">
         <v>0</v>
       </c>
-      <c r="J320" s="5">
+      <c r="J320" s="4">
         <v>9.3089104706095309</v>
       </c>
       <c r="K320">
@@ -21288,7 +21277,7 @@
       <c r="I321">
         <v>0</v>
       </c>
-      <c r="J321" s="5">
+      <c r="J321" s="4">
         <v>72.083752565499196</v>
       </c>
       <c r="K321">
@@ -21353,7 +21342,7 @@
       <c r="I322">
         <v>1</v>
       </c>
-      <c r="J322" s="5">
+      <c r="J322" s="4">
         <v>92.031103778131595</v>
       </c>
       <c r="K322">
@@ -21418,7 +21407,7 @@
       <c r="I323">
         <v>2</v>
       </c>
-      <c r="J323" s="5">
+      <c r="J323" s="4">
         <v>61.657620276609201</v>
       </c>
       <c r="K323">
@@ -21483,7 +21472,7 @@
       <c r="I324">
         <v>3</v>
       </c>
-      <c r="J324" s="5">
+      <c r="J324" s="4">
         <v>11.6279426519979</v>
       </c>
       <c r="K324">
@@ -21546,7 +21535,7 @@
       <c r="I325">
         <v>4</v>
       </c>
-      <c r="J325" s="5">
+      <c r="J325" s="4">
         <v>27.366596612077501</v>
       </c>
       <c r="K325">
@@ -21611,7 +21600,7 @@
       <c r="I326">
         <v>0</v>
       </c>
-      <c r="J326" s="5">
+      <c r="J326" s="4">
         <v>15.119315631445</v>
       </c>
       <c r="K326">
@@ -21676,7 +21665,7 @@
       <c r="I327">
         <v>1</v>
       </c>
-      <c r="J327" s="5">
+      <c r="J327" s="4">
         <v>23.605214991021068</v>
       </c>
       <c r="K327">
@@ -21739,7 +21728,7 @@
       <c r="I328">
         <v>2</v>
       </c>
-      <c r="J328" s="5">
+      <c r="J328" s="4">
         <v>31.043694872016278</v>
       </c>
       <c r="K328">
@@ -21802,7 +21791,7 @@
       <c r="I329">
         <v>3</v>
       </c>
-      <c r="J329" s="5">
+      <c r="J329" s="4">
         <v>24.09854676352046</v>
       </c>
       <c r="K329">
@@ -21867,7 +21856,7 @@
       <c r="I330">
         <v>0</v>
       </c>
-      <c r="J330" s="5">
+      <c r="J330" s="4">
         <v>31.845357864910191</v>
       </c>
       <c r="K330">
@@ -21932,7 +21921,7 @@
       <c r="I331">
         <v>1</v>
       </c>
-      <c r="J331" s="5">
+      <c r="J331" s="4">
         <v>10.733249414173194</v>
       </c>
       <c r="K331">
@@ -22007,7 +21996,7 @@
         <v>8</v>
       </c>
       <c r="M332" s="2">
-        <v>7.2664734750973558E-5</v>
+        <v>6.9444444444444444E-5</v>
       </c>
       <c r="N332">
         <v>0</v>
@@ -22062,7 +22051,7 @@
       <c r="I333">
         <v>0</v>
       </c>
-      <c r="J333" s="5">
+      <c r="J333" s="4">
         <v>7.7217669175158843</v>
       </c>
       <c r="K333">
@@ -22125,7 +22114,7 @@
       <c r="I334">
         <v>1</v>
       </c>
-      <c r="J334" s="5">
+      <c r="J334" s="4">
         <v>25.857641968888714</v>
       </c>
       <c r="K334">
@@ -22190,7 +22179,7 @@
       <c r="I335">
         <v>0</v>
       </c>
-      <c r="J335" s="5">
+      <c r="J335" s="4">
         <v>22.328567567322715</v>
       </c>
       <c r="K335">
@@ -22255,7 +22244,7 @@
       <c r="I336">
         <v>1</v>
       </c>
-      <c r="J336" s="5">
+      <c r="J336" s="4">
         <v>17.495807525737689</v>
       </c>
       <c r="K336">
@@ -22320,7 +22309,7 @@
       <c r="I337">
         <v>2</v>
       </c>
-      <c r="J337" s="5">
+      <c r="J337" s="4">
         <v>12.004780567900053</v>
       </c>
       <c r="K337">
@@ -22385,7 +22374,7 @@
       <c r="I338">
         <v>3</v>
       </c>
-      <c r="J338" s="5">
+      <c r="J338" s="4">
         <v>8.4041915088635744</v>
       </c>
       <c r="K338">
@@ -22450,7 +22439,7 @@
       <c r="I339">
         <v>4</v>
       </c>
-      <c r="J339" s="5">
+      <c r="J339" s="4">
         <v>20.649586811217546</v>
       </c>
       <c r="K339">
@@ -22515,7 +22504,7 @@
       <c r="I340">
         <v>5</v>
       </c>
-      <c r="J340" s="5">
+      <c r="J340" s="4">
         <v>23.172342050137377</v>
       </c>
       <c r="K340">
@@ -22580,7 +22569,7 @@
       <c r="I341">
         <v>0</v>
       </c>
-      <c r="J341" s="5">
+      <c r="J341" s="4">
         <v>5.2038446138816443</v>
       </c>
       <c r="K341">
@@ -22645,7 +22634,7 @@
       <c r="I342">
         <v>0</v>
       </c>
-      <c r="J342" s="5">
+      <c r="J342" s="4">
         <v>10.123881038591557</v>
       </c>
       <c r="K342">
@@ -22710,7 +22699,7 @@
       <c r="I343">
         <v>0</v>
       </c>
-      <c r="J343" s="5">
+      <c r="J343" s="4">
         <v>36.565129441588034</v>
       </c>
       <c r="K343">
@@ -22773,7 +22762,7 @@
       <c r="I344">
         <v>1</v>
       </c>
-      <c r="J344" s="5">
+      <c r="J344" s="4">
         <v>33.48559034577643</v>
       </c>
       <c r="K344">
@@ -22838,7 +22827,7 @@
       <c r="I345">
         <v>2</v>
       </c>
-      <c r="J345" s="5">
+      <c r="J345" s="4">
         <v>45.069705624124779</v>
       </c>
       <c r="K345">
@@ -22903,7 +22892,7 @@
       <c r="I346">
         <v>3</v>
       </c>
-      <c r="J346" s="5">
+      <c r="J346" s="4">
         <v>40.591707008159467</v>
       </c>
       <c r="K346">
@@ -22968,7 +22957,7 @@
       <c r="I347">
         <v>0</v>
       </c>
-      <c r="J347" s="5">
+      <c r="J347" s="4">
         <v>7.4605701714464328</v>
       </c>
       <c r="K347">
@@ -23033,7 +23022,7 @@
       <c r="I348">
         <v>1</v>
       </c>
-      <c r="J348" s="5">
+      <c r="J348" s="4">
         <v>27.822494547143574</v>
       </c>
       <c r="K348">
@@ -23098,7 +23087,7 @@
       <c r="I349">
         <v>2</v>
       </c>
-      <c r="J349" s="5">
+      <c r="J349" s="4">
         <v>20.747667465183994</v>
       </c>
       <c r="K349">
@@ -23163,7 +23152,7 @@
       <c r="I350">
         <v>0</v>
       </c>
-      <c r="J350" s="5">
+      <c r="J350" s="4">
         <v>19.893067814219407</v>
       </c>
       <c r="K350">
@@ -23228,7 +23217,7 @@
       <c r="I351">
         <v>0</v>
       </c>
-      <c r="J351" s="5">
+      <c r="J351" s="4">
         <v>20.122069872734635</v>
       </c>
       <c r="K351">
@@ -23293,7 +23282,7 @@
       <c r="I352">
         <v>0</v>
       </c>
-      <c r="J352" s="5">
+      <c r="J352" s="4">
         <v>32.03207550259657</v>
       </c>
       <c r="K352">
@@ -23358,7 +23347,7 @@
       <c r="I353">
         <v>0</v>
       </c>
-      <c r="J353" s="5">
+      <c r="J353" s="4">
         <v>10.904778214358926</v>
       </c>
       <c r="K353">
@@ -23423,7 +23412,7 @@
       <c r="I354">
         <v>0</v>
       </c>
-      <c r="J354" s="5">
+      <c r="J354" s="4">
         <v>12.027219194261923</v>
       </c>
       <c r="K354">
@@ -23486,7 +23475,7 @@
       <c r="I355">
         <v>1</v>
       </c>
-      <c r="J355" s="5">
+      <c r="J355" s="4">
         <v>12.7424535897645</v>
       </c>
       <c r="K355">
@@ -23551,7 +23540,7 @@
       <c r="I356">
         <v>2</v>
       </c>
-      <c r="J356" s="5">
+      <c r="J356" s="4">
         <v>14.2668160238038</v>
       </c>
       <c r="K356">
@@ -23616,7 +23605,7 @@
       <c r="I357">
         <v>3</v>
       </c>
-      <c r="J357" s="5">
+      <c r="J357" s="4">
         <v>13.6981910219969</v>
       </c>
       <c r="K357">
@@ -23681,7 +23670,7 @@
       <c r="I358">
         <v>4</v>
       </c>
-      <c r="J358" s="5">
+      <c r="J358" s="4">
         <v>48.554818543883712</v>
       </c>
       <c r="K358">
@@ -23746,7 +23735,7 @@
       <c r="I359">
         <v>0</v>
       </c>
-      <c r="J359" s="5">
+      <c r="J359" s="4">
         <v>27.094573086951556</v>
       </c>
       <c r="K359">
@@ -23811,7 +23800,7 @@
       <c r="I360">
         <v>1</v>
       </c>
-      <c r="J360" s="5">
+      <c r="J360" s="4">
         <v>30.389916257411098</v>
       </c>
       <c r="K360">
@@ -23876,7 +23865,7 @@
       <c r="I361">
         <v>0</v>
       </c>
-      <c r="J361" s="5">
+      <c r="J361" s="4">
         <v>42.269937946682155</v>
       </c>
       <c r="K361">
@@ -23941,7 +23930,7 @@
       <c r="I362">
         <v>1</v>
       </c>
-      <c r="J362" s="5">
+      <c r="J362" s="4">
         <v>20.508113132371509</v>
       </c>
       <c r="K362">
@@ -23978,7 +23967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>22</v>
       </c>
@@ -24016,7 +24005,7 @@
         <v>10</v>
       </c>
       <c r="M363" s="2">
-        <v>9.9559198652707877E-5</v>
+        <v>1.0416666666666667E-4</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -24071,7 +24060,7 @@
       <c r="I364">
         <v>2</v>
       </c>
-      <c r="J364" s="5">
+      <c r="J364" s="4">
         <v>41.39808523640604</v>
       </c>
       <c r="K364">
@@ -24136,7 +24125,7 @@
       <c r="I365">
         <v>0</v>
       </c>
-      <c r="J365" s="5">
+      <c r="J365" s="4">
         <v>35.42495339755358</v>
       </c>
       <c r="K365">
@@ -24201,7 +24190,7 @@
       <c r="I366">
         <v>0</v>
       </c>
-      <c r="J366" s="5">
+      <c r="J366" s="4">
         <v>15.852478248700686</v>
       </c>
       <c r="K366">
@@ -24266,7 +24255,7 @@
       <c r="I367">
         <v>1</v>
       </c>
-      <c r="J367" s="5">
+      <c r="J367" s="4">
         <v>44.789516716174589</v>
       </c>
       <c r="K367">
@@ -24331,7 +24320,7 @@
       <c r="I368">
         <v>0</v>
       </c>
-      <c r="J368" s="5">
+      <c r="J368" s="4">
         <v>41.349155575920271</v>
       </c>
       <c r="K368">
@@ -24396,7 +24385,7 @@
       <c r="I369">
         <v>1</v>
       </c>
-      <c r="J369" s="5">
+      <c r="J369" s="4">
         <v>59.915332511402625</v>
       </c>
       <c r="K369">
@@ -24461,7 +24450,7 @@
       <c r="I370">
         <v>2</v>
       </c>
-      <c r="J370" s="5">
+      <c r="J370" s="4">
         <v>13.201283395452307</v>
       </c>
       <c r="K370">
@@ -24526,7 +24515,7 @@
       <c r="I371">
         <v>3</v>
       </c>
-      <c r="J371" s="5">
+      <c r="J371" s="4">
         <v>31.731930849851786</v>
       </c>
       <c r="K371">
@@ -24591,7 +24580,7 @@
       <c r="I372">
         <v>0</v>
       </c>
-      <c r="J372" s="5">
+      <c r="J372" s="4">
         <v>31.885347251654323</v>
       </c>
       <c r="K372">
@@ -24656,7 +24645,7 @@
       <c r="I373">
         <v>1</v>
       </c>
-      <c r="J373" s="5">
+      <c r="J373" s="4">
         <v>38.914389036506421</v>
       </c>
       <c r="K373">
@@ -24721,7 +24710,7 @@
       <c r="I374">
         <v>2</v>
       </c>
-      <c r="J374" s="5">
+      <c r="J374" s="4">
         <v>32.368217795926498</v>
       </c>
       <c r="K374">
@@ -24786,7 +24775,7 @@
       <c r="I375">
         <v>0</v>
       </c>
-      <c r="J375" s="5">
+      <c r="J375" s="4">
         <v>46.274207548959922</v>
       </c>
       <c r="K375">
@@ -24851,7 +24840,7 @@
       <c r="I376">
         <v>1</v>
       </c>
-      <c r="J376" s="5">
+      <c r="J376" s="4">
         <v>48.255678882567601</v>
       </c>
       <c r="K376">
@@ -24916,7 +24905,7 @@
       <c r="I377">
         <v>0</v>
       </c>
-      <c r="J377" s="5">
+      <c r="J377" s="4">
         <v>54.508262333930276</v>
       </c>
       <c r="K377">
@@ -24981,7 +24970,7 @@
       <c r="I378">
         <v>1</v>
       </c>
-      <c r="J378" s="5">
+      <c r="J378" s="4">
         <v>30.736184361850039</v>
       </c>
       <c r="K378">
@@ -25044,7 +25033,7 @@
       <c r="I379">
         <v>2</v>
       </c>
-      <c r="J379" s="5">
+      <c r="J379" s="4">
         <v>37.926048567066822</v>
       </c>
       <c r="K379">
@@ -25107,7 +25096,7 @@
       <c r="I380">
         <v>3</v>
       </c>
-      <c r="J380" s="5">
+      <c r="J380" s="4">
         <v>45.06045282505422</v>
       </c>
       <c r="K380">
@@ -25172,7 +25161,7 @@
       <c r="I381">
         <v>4</v>
       </c>
-      <c r="J381" s="5">
+      <c r="J381" s="4">
         <v>30.151154767951684</v>
       </c>
       <c r="K381">
@@ -25237,7 +25226,7 @@
       <c r="I382">
         <v>0</v>
       </c>
-      <c r="J382" s="5">
+      <c r="J382" s="4">
         <v>17.337935984838811</v>
       </c>
       <c r="K382">
@@ -25302,7 +25291,7 @@
       <c r="I383">
         <v>0</v>
       </c>
-      <c r="J383" s="5">
+      <c r="J383" s="4">
         <v>43.214900691015259</v>
       </c>
       <c r="K383">
@@ -25367,7 +25356,7 @@
       <c r="I384">
         <v>1</v>
       </c>
-      <c r="J384" s="5">
+      <c r="J384" s="4">
         <v>20.051196492895986</v>
       </c>
       <c r="K384">
@@ -25442,7 +25431,7 @@
         <v>10</v>
       </c>
       <c r="M385" s="2">
-        <v>9.7756547641193411E-5</v>
+        <v>9.2592592592592588E-5</v>
       </c>
       <c r="N385">
         <v>0</v>
@@ -25497,7 +25486,7 @@
       <c r="I386">
         <v>2</v>
       </c>
-      <c r="J386" s="5">
+      <c r="J386" s="4">
         <v>18.553834283800889</v>
       </c>
       <c r="K386">
@@ -25562,7 +25551,7 @@
       <c r="I387">
         <v>0</v>
       </c>
-      <c r="J387" s="5">
+      <c r="J387" s="4">
         <v>40.88125649709319</v>
       </c>
       <c r="K387">
@@ -25627,7 +25616,7 @@
       <c r="I388">
         <v>1</v>
       </c>
-      <c r="J388" s="5">
+      <c r="J388" s="4">
         <v>93.913527710935</v>
       </c>
       <c r="K388">
@@ -25692,7 +25681,7 @@
       <c r="I389">
         <v>2</v>
       </c>
-      <c r="J389" s="5">
+      <c r="J389" s="4">
         <v>41.993920713604332</v>
       </c>
       <c r="K389">
@@ -25757,7 +25746,7 @@
       <c r="I390">
         <v>0</v>
       </c>
-      <c r="J390" s="5">
+      <c r="J390" s="4">
         <v>27.795333307825445</v>
       </c>
       <c r="K390">
@@ -25822,7 +25811,7 @@
       <c r="I391">
         <v>1</v>
       </c>
-      <c r="J391" s="5">
+      <c r="J391" s="4">
         <v>77.197951080455198</v>
       </c>
       <c r="K391">
@@ -25887,7 +25876,7 @@
       <c r="I392">
         <v>0</v>
       </c>
-      <c r="J392" s="5">
+      <c r="J392" s="4">
         <v>20.076431357578716</v>
       </c>
       <c r="K392">
@@ -25952,7 +25941,7 @@
       <c r="I393">
         <v>1</v>
       </c>
-      <c r="J393" s="5">
+      <c r="J393" s="4">
         <v>10.993016337994817</v>
       </c>
       <c r="K393">
@@ -26017,7 +26006,7 @@
       <c r="I394">
         <v>0</v>
       </c>
-      <c r="J394" s="5">
+      <c r="J394" s="4">
         <v>33.4020134628148</v>
       </c>
       <c r="K394">
@@ -26082,7 +26071,7 @@
       <c r="I395">
         <v>1</v>
       </c>
-      <c r="J395" s="5">
+      <c r="J395" s="4">
         <v>37.452022399814673</v>
       </c>
       <c r="K395">
@@ -26147,7 +26136,7 @@
       <c r="I396">
         <v>2</v>
       </c>
-      <c r="J396" s="5">
+      <c r="J396" s="4">
         <v>24.488750218880199</v>
       </c>
       <c r="K396">
@@ -26210,7 +26199,7 @@
       <c r="I397">
         <v>3</v>
       </c>
-      <c r="J397" s="5">
+      <c r="J397" s="4">
         <v>15.549161198977</v>
       </c>
       <c r="K397">
@@ -26275,7 +26264,7 @@
       <c r="I398">
         <v>0</v>
       </c>
-      <c r="J398" s="5">
+      <c r="J398" s="4">
         <v>44.769262232874297</v>
       </c>
       <c r="K398">
@@ -26340,7 +26329,7 @@
       <c r="I399">
         <v>1</v>
       </c>
-      <c r="J399" s="5">
+      <c r="J399" s="4">
         <v>26.979378609623382</v>
       </c>
       <c r="K399">
@@ -26405,7 +26394,7 @@
       <c r="I400">
         <v>2</v>
       </c>
-      <c r="J400" s="5">
+      <c r="J400" s="4">
         <v>10.583097455702518</v>
       </c>
       <c r="K400">
@@ -26470,7 +26459,7 @@
       <c r="I401">
         <v>0</v>
       </c>
-      <c r="J401" s="5">
+      <c r="J401" s="4">
         <v>43.676381248995604</v>
       </c>
       <c r="K401">
@@ -26535,7 +26524,7 @@
       <c r="I402">
         <v>1</v>
       </c>
-      <c r="J402" s="5">
+      <c r="J402" s="4">
         <v>50.521808155998087</v>
       </c>
       <c r="K402">
@@ -26600,7 +26589,7 @@
       <c r="I403">
         <v>2</v>
       </c>
-      <c r="J403" s="5">
+      <c r="J403" s="4">
         <v>21.360984058606853</v>
       </c>
       <c r="K403">
@@ -26675,7 +26664,7 @@
         <v>9</v>
       </c>
       <c r="M404" s="2">
-        <v>1.114018803114132E-4</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="N404">
         <v>0</v>
@@ -26730,7 +26719,7 @@
       <c r="I405">
         <v>1</v>
       </c>
-      <c r="J405" s="5">
+      <c r="J405" s="4">
         <v>19.374877541093898</v>
       </c>
       <c r="K405">
@@ -26795,7 +26784,7 @@
       <c r="I406">
         <v>0</v>
       </c>
-      <c r="J406" s="5">
+      <c r="J406" s="4">
         <v>10.941393029527095</v>
       </c>
       <c r="K406">
@@ -26860,7 +26849,7 @@
       <c r="I407">
         <v>1</v>
       </c>
-      <c r="J407" s="5">
+      <c r="J407" s="4">
         <v>63.833313956367782</v>
       </c>
       <c r="K407">
@@ -26925,7 +26914,7 @@
       <c r="I408">
         <v>0</v>
       </c>
-      <c r="J408" s="5">
+      <c r="J408" s="4">
         <v>36.759673311923784</v>
       </c>
       <c r="K408">
@@ -26990,7 +26979,7 @@
       <c r="I409">
         <v>0</v>
       </c>
-      <c r="J409" s="5">
+      <c r="J409" s="4">
         <v>21.641891759564587</v>
       </c>
       <c r="K409">
@@ -27055,7 +27044,7 @@
       <c r="I410">
         <v>1</v>
       </c>
-      <c r="J410" s="5">
+      <c r="J410" s="4">
         <v>83.280808137163547</v>
       </c>
       <c r="K410">
@@ -27120,7 +27109,7 @@
       <c r="I411">
         <v>2</v>
       </c>
-      <c r="J411" s="5">
+      <c r="J411" s="4">
         <v>69.841364938309198</v>
       </c>
       <c r="K411">
@@ -27185,7 +27174,7 @@
       <c r="I412">
         <v>3</v>
       </c>
-      <c r="J412" s="5">
+      <c r="J412" s="4">
         <v>75.889904754793861</v>
       </c>
       <c r="K412">
@@ -27250,7 +27239,7 @@
       <c r="I413">
         <v>0</v>
       </c>
-      <c r="J413" s="5">
+      <c r="J413" s="4">
         <v>19.397249396706226</v>
       </c>
       <c r="K413">
@@ -27313,7 +27302,7 @@
       <c r="I414">
         <v>1</v>
       </c>
-      <c r="J414" s="5">
+      <c r="J414" s="4">
         <v>58.848880813382614</v>
       </c>
       <c r="K414">
@@ -27376,7 +27365,7 @@
       <c r="I415">
         <v>2</v>
       </c>
-      <c r="J415" s="5">
+      <c r="J415" s="4">
         <v>48.310315750987414</v>
       </c>
       <c r="K415">
@@ -27441,7 +27430,7 @@
       <c r="I416">
         <v>3</v>
       </c>
-      <c r="J416" s="5">
+      <c r="J416" s="4">
         <v>31.530323293310715</v>
       </c>
       <c r="K416">
@@ -27506,7 +27495,7 @@
       <c r="I417">
         <v>0</v>
       </c>
-      <c r="J417" s="5">
+      <c r="J417" s="4">
         <v>47.502192742297986</v>
       </c>
       <c r="K417">
@@ -27571,7 +27560,7 @@
       <c r="I418">
         <v>0</v>
       </c>
-      <c r="J418" s="5">
+      <c r="J418" s="4">
         <v>54.843884159630214</v>
       </c>
       <c r="K418">
@@ -27636,7 +27625,7 @@
       <c r="I419">
         <v>0</v>
       </c>
-      <c r="J419" s="5">
+      <c r="J419" s="4">
         <v>77.344586786161472</v>
       </c>
       <c r="K419">
@@ -27711,7 +27700,7 @@
         <v>13</v>
       </c>
       <c r="M420" s="2">
-        <v>1.609445617239804E-4</v>
+        <v>1.6203703703703703E-4</v>
       </c>
       <c r="N420">
         <v>0</v>
@@ -27766,7 +27755,7 @@
       <c r="I421">
         <v>0</v>
       </c>
-      <c r="J421" s="5">
+      <c r="J421" s="4">
         <v>55.094389867048093</v>
       </c>
       <c r="K421">
@@ -27829,7 +27818,7 @@
       <c r="I422">
         <v>1</v>
       </c>
-      <c r="J422" s="5">
+      <c r="J422" s="4">
         <v>36.60387517879515</v>
       </c>
       <c r="K422">
@@ -27892,7 +27881,7 @@
       <c r="I423">
         <v>2</v>
       </c>
-      <c r="J423" s="5">
+      <c r="J423" s="4">
         <v>63.328068717839429</v>
       </c>
       <c r="K423">
@@ -27957,7 +27946,7 @@
       <c r="I424">
         <v>3</v>
       </c>
-      <c r="J424" s="5">
+      <c r="J424" s="4">
         <v>41.390301484373431</v>
       </c>
       <c r="K424">
@@ -28022,7 +28011,7 @@
       <c r="I425">
         <v>4</v>
       </c>
-      <c r="J425" s="5">
+      <c r="J425" s="4">
         <v>62.14285462968175</v>
       </c>
       <c r="K425">
@@ -28087,7 +28076,7 @@
       <c r="I426">
         <v>0</v>
       </c>
-      <c r="J426" s="5">
+      <c r="J426" s="4">
         <v>13.660854384237147</v>
       </c>
       <c r="K426">
@@ -28152,7 +28141,7 @@
       <c r="I427">
         <v>1</v>
       </c>
-      <c r="J427" s="5">
+      <c r="J427" s="4">
         <v>59.446432203782095</v>
       </c>
       <c r="K427">
@@ -28217,7 +28206,7 @@
       <c r="I428">
         <v>0</v>
       </c>
-      <c r="J428" s="5">
+      <c r="J428" s="4">
         <v>26.375049017393469</v>
       </c>
       <c r="K428">
@@ -28282,7 +28271,7 @@
       <c r="I429">
         <v>1</v>
       </c>
-      <c r="J429" s="5">
+      <c r="J429" s="4">
         <v>38.46840602025847</v>
       </c>
       <c r="K429">
@@ -28347,7 +28336,7 @@
       <c r="I430">
         <v>2</v>
       </c>
-      <c r="J430" s="5">
+      <c r="J430" s="4">
         <v>28.774526253767988</v>
       </c>
       <c r="K430">
@@ -28412,7 +28401,7 @@
       <c r="I431">
         <v>3</v>
       </c>
-      <c r="J431" s="5">
+      <c r="J431" s="4">
         <v>27.184829728504951</v>
       </c>
       <c r="K431">
@@ -28477,7 +28466,7 @@
       <c r="I432">
         <v>0</v>
       </c>
-      <c r="J432" s="5">
+      <c r="J432" s="4">
         <v>57.997993554144564</v>
       </c>
       <c r="K432">
@@ -28542,7 +28531,7 @@
       <c r="I433">
         <v>1</v>
       </c>
-      <c r="J433" s="5">
+      <c r="J433" s="4">
         <v>60.305106442846764</v>
       </c>
       <c r="K433">
@@ -28607,7 +28596,7 @@
       <c r="I434">
         <v>0</v>
       </c>
-      <c r="J434" s="5">
+      <c r="J434" s="4">
         <v>18.564346552363233</v>
       </c>
       <c r="K434">
@@ -28672,7 +28661,7 @@
       <c r="I435">
         <v>1</v>
       </c>
-      <c r="J435" s="5">
+      <c r="J435" s="4">
         <v>44.181099544211918</v>
       </c>
       <c r="K435">
@@ -28737,7 +28726,7 @@
       <c r="I436">
         <v>0</v>
       </c>
-      <c r="J436" s="5">
+      <c r="J436" s="4">
         <v>25.325331165045988</v>
       </c>
       <c r="K436">
@@ -28802,7 +28791,7 @@
       <c r="I437">
         <v>1</v>
       </c>
-      <c r="J437" s="5">
+      <c r="J437" s="4">
         <v>30.243851472749412</v>
       </c>
       <c r="K437">
@@ -28867,7 +28856,7 @@
       <c r="I438">
         <v>0</v>
       </c>
-      <c r="J438" s="5">
+      <c r="J438" s="4">
         <v>55.645727591952102</v>
       </c>
       <c r="K438">
@@ -28942,7 +28931,7 @@
         <v>14</v>
       </c>
       <c r="M439" s="2">
-        <v>1.5587161070404389E-4</v>
+        <v>1.5046296296296297E-4</v>
       </c>
       <c r="N439">
         <v>0</v>
@@ -28997,7 +28986,7 @@
       <c r="I440">
         <v>0</v>
       </c>
-      <c r="J440" s="5">
+      <c r="J440" s="4">
         <v>16.532692835170607</v>
       </c>
       <c r="K440">
@@ -29062,7 +29051,7 @@
       <c r="I441">
         <v>1</v>
       </c>
-      <c r="J441" s="5">
+      <c r="J441" s="4">
         <v>36.725525823322187</v>
       </c>
       <c r="K441">
@@ -29127,7 +29116,7 @@
       <c r="I442">
         <v>2</v>
       </c>
-      <c r="J442" s="5">
+      <c r="J442" s="4">
         <v>63.906241233086568</v>
       </c>
       <c r="K442">
@@ -29192,7 +29181,7 @@
       <c r="I443">
         <v>3</v>
       </c>
-      <c r="J443" s="5">
+      <c r="J443" s="4">
         <v>32.734054918089825</v>
       </c>
       <c r="K443">
@@ -29257,7 +29246,7 @@
       <c r="I444">
         <v>4</v>
       </c>
-      <c r="J444" s="5">
+      <c r="J444" s="4">
         <v>32.201179854137436</v>
       </c>
       <c r="K444">
@@ -29322,7 +29311,7 @@
       <c r="I445">
         <v>5</v>
       </c>
-      <c r="J445" s="5">
+      <c r="J445" s="4">
         <v>37.467117726815431</v>
       </c>
       <c r="K445">
@@ -29387,7 +29376,7 @@
       <c r="I446">
         <v>6</v>
       </c>
-      <c r="J446" s="5">
+      <c r="J446" s="4">
         <v>35.713599819708797</v>
       </c>
       <c r="K446">
@@ -29452,7 +29441,7 @@
       <c r="I447">
         <v>7</v>
       </c>
-      <c r="J447" s="5">
+      <c r="J447" s="4">
         <v>34.051591663718909</v>
       </c>
       <c r="K447">
@@ -29517,7 +29506,7 @@
       <c r="I448">
         <v>0</v>
       </c>
-      <c r="J448" s="5">
+      <c r="J448" s="4">
         <v>33.76106559876272</v>
       </c>
       <c r="K448">
@@ -29582,7 +29571,7 @@
       <c r="I449">
         <v>1</v>
       </c>
-      <c r="J449" s="5">
+      <c r="J449" s="4">
         <v>27.472561560848735</v>
       </c>
       <c r="K449">
@@ -29647,7 +29636,7 @@
       <c r="I450">
         <v>0</v>
       </c>
-      <c r="J450" s="5">
+      <c r="J450" s="4">
         <v>54.01065881280082</v>
       </c>
       <c r="K450">
@@ -29712,7 +29701,7 @@
       <c r="I451">
         <v>1</v>
       </c>
-      <c r="J451" s="5">
+      <c r="J451" s="4">
         <v>30.283033735765681</v>
       </c>
       <c r="K451">
@@ -29777,7 +29766,7 @@
       <c r="I452">
         <v>2</v>
       </c>
-      <c r="J452" s="5">
+      <c r="J452" s="4">
         <v>60.690406515439847</v>
       </c>
       <c r="K452">
@@ -29842,7 +29831,7 @@
       <c r="I453">
         <v>3</v>
       </c>
-      <c r="J453" s="5">
+      <c r="J453" s="4">
         <v>34.189549617494443</v>
       </c>
       <c r="K453">
@@ -29907,7 +29896,7 @@
       <c r="I454">
         <v>4</v>
       </c>
-      <c r="J454" s="5">
+      <c r="J454" s="4">
         <v>42.938594634645106</v>
       </c>
       <c r="K454">
@@ -29972,7 +29961,7 @@
       <c r="I455">
         <v>5</v>
       </c>
-      <c r="J455" s="5">
+      <c r="J455" s="4">
         <v>37.763132886577864</v>
       </c>
       <c r="K455">
@@ -30037,7 +30026,7 @@
       <c r="I456">
         <v>6</v>
       </c>
-      <c r="J456" s="5">
+      <c r="J456" s="4">
         <v>21.356082842002341</v>
       </c>
       <c r="K456">
@@ -30102,7 +30091,7 @@
       <c r="I457">
         <v>0</v>
       </c>
-      <c r="J457" s="5">
+      <c r="J457" s="4">
         <v>22.752071550136563</v>
       </c>
       <c r="K457">
@@ -30167,7 +30156,7 @@
       <c r="I458">
         <v>1</v>
       </c>
-      <c r="J458" s="5">
+      <c r="J458" s="4">
         <v>9.5093073244825277</v>
       </c>
       <c r="K458">
@@ -30232,7 +30221,7 @@
       <c r="I459">
         <v>0</v>
       </c>
-      <c r="J459" s="5">
+      <c r="J459" s="4">
         <v>24.40543357179531</v>
       </c>
       <c r="K459">
@@ -30297,7 +30286,7 @@
       <c r="I460">
         <v>0</v>
       </c>
-      <c r="J460" s="5">
+      <c r="J460" s="4">
         <v>36.585295189462457</v>
       </c>
       <c r="K460">
@@ -30372,7 +30361,7 @@
         <v>9</v>
       </c>
       <c r="M461" s="2">
-        <v>1.0206419593431243E-4</v>
+        <v>1.0416666666666667E-4</v>
       </c>
       <c r="N461">
         <v>0</v>
@@ -30427,7 +30416,7 @@
       <c r="I462">
         <v>2</v>
       </c>
-      <c r="J462" s="5">
+      <c r="J462" s="4">
         <v>18.181653471275407</v>
       </c>
       <c r="K462">
@@ -30492,7 +30481,7 @@
       <c r="I463">
         <v>0</v>
       </c>
-      <c r="J463" s="5">
+      <c r="J463" s="4">
         <v>8.9792981717472884</v>
       </c>
       <c r="K463">
@@ -30557,7 +30546,7 @@
       <c r="I464">
         <v>0</v>
       </c>
-      <c r="J464" s="5">
+      <c r="J464" s="4">
         <v>41.467819167770983</v>
       </c>
       <c r="K464">
@@ -30622,7 +30611,7 @@
       <c r="I465">
         <v>1</v>
       </c>
-      <c r="J465" s="5">
+      <c r="J465" s="4">
         <v>20.482041554353657</v>
       </c>
       <c r="K465">
@@ -30687,7 +30676,7 @@
       <c r="I466">
         <v>2</v>
       </c>
-      <c r="J466" s="5">
+      <c r="J466" s="4">
         <v>11.342940852597126</v>
       </c>
       <c r="K466">
@@ -30752,7 +30741,7 @@
       <c r="I467">
         <v>3</v>
       </c>
-      <c r="J467" s="5">
+      <c r="J467" s="4">
         <v>28.781614974512948</v>
       </c>
       <c r="K467">
@@ -30817,7 +30806,7 @@
       <c r="I468">
         <v>0</v>
       </c>
-      <c r="J468" s="5">
+      <c r="J468" s="4">
         <v>45.404970575436728</v>
       </c>
       <c r="K468">
@@ -30882,7 +30871,7 @@
       <c r="I469">
         <v>1</v>
       </c>
-      <c r="J469" s="5">
+      <c r="J469" s="4">
         <v>47.155751790638242</v>
       </c>
       <c r="K469">
@@ -30947,7 +30936,7 @@
       <c r="I470">
         <v>0</v>
       </c>
-      <c r="J470" s="5">
+      <c r="J470" s="4">
         <v>20.239683845279451</v>
       </c>
       <c r="K470">
@@ -31012,7 +31001,7 @@
       <c r="I471">
         <v>1</v>
       </c>
-      <c r="J471" s="5">
+      <c r="J471" s="4">
         <v>63.997592067070158</v>
       </c>
       <c r="K471">
@@ -31077,7 +31066,7 @@
       <c r="I472">
         <v>2</v>
       </c>
-      <c r="J472" s="5">
+      <c r="J472" s="4">
         <v>59.921734007502721</v>
       </c>
       <c r="K472">
@@ -31142,7 +31131,7 @@
       <c r="I473">
         <v>3</v>
       </c>
-      <c r="J473" s="5">
+      <c r="J473" s="4">
         <v>30.409362829590105</v>
       </c>
       <c r="K473">
@@ -31207,7 +31196,7 @@
       <c r="I474">
         <v>0</v>
       </c>
-      <c r="J474" s="5">
+      <c r="J474" s="4">
         <v>45.043269762284012</v>
       </c>
       <c r="K474">
@@ -31272,7 +31261,7 @@
       <c r="I475">
         <v>0</v>
       </c>
-      <c r="J475" s="5">
+      <c r="J475" s="4">
         <v>17.55329925266479</v>
       </c>
       <c r="K475">
@@ -31337,7 +31326,7 @@
       <c r="I476">
         <v>0</v>
       </c>
-      <c r="J476" s="5">
+      <c r="J476" s="4">
         <v>32.017902249192119</v>
       </c>
       <c r="K476">
@@ -31402,7 +31391,7 @@
       <c r="I477">
         <v>1</v>
       </c>
-      <c r="J477" s="5">
+      <c r="J477" s="4">
         <v>36.382994947594447</v>
       </c>
       <c r="K477">
@@ -31465,7 +31454,7 @@
       <c r="I478">
         <v>2</v>
       </c>
-      <c r="J478" s="5">
+      <c r="J478" s="4">
         <v>59.957541423409019</v>
       </c>
       <c r="K478">
@@ -31530,7 +31519,7 @@
       <c r="I479">
         <v>3</v>
       </c>
-      <c r="J479" s="5">
+      <c r="J479" s="4">
         <v>56.138906498151599</v>
       </c>
       <c r="K479">
@@ -31595,7 +31584,7 @@
       <c r="I480">
         <v>0</v>
       </c>
-      <c r="J480" s="5">
+      <c r="J480" s="4">
         <v>14.63483076261585</v>
       </c>
       <c r="K480">
@@ -31658,7 +31647,7 @@
       <c r="I481">
         <v>1</v>
       </c>
-      <c r="J481" s="5">
+      <c r="J481" s="4">
         <v>58.396396953951289</v>
       </c>
       <c r="K481">
@@ -31723,7 +31712,7 @@
       <c r="I482">
         <v>1</v>
       </c>
-      <c r="J482" s="5">
+      <c r="J482" s="4">
         <v>38.087807850714178</v>
       </c>
       <c r="K482">

--- a/Analysis/wrangler_digit_span_log.xlsx
+++ b/Analysis/wrangler_digit_span_log.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a77ded506e32178a/Tartu Ülikool/AI and NI/Digit_Span_Trainer/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="11_F25DC773A252ABDACC1048F8B91D53465BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81B61543-7909-48E6-90E6-601B1A9F0667}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC1048F8B91D53465BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{923EC5CC-653D-4BD9-B1B0-5B3840991375}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$482</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -315,6 +318,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
